--- a/Sprint Plan.xlsx
+++ b/Sprint Plan.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\GitHub\CS361_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sprint 0</t>
   </si>
@@ -44,11 +44,32 @@
   <si>
     <t>two IND race Scenarios: start runner 1 and toggle channel on</t>
   </si>
+  <si>
+    <t>Add JUnit Tests</t>
+  </si>
+  <si>
+    <t>Add ParaIndividual Functionality</t>
+  </si>
+  <si>
+    <t>Add ability to export of data to the file</t>
+  </si>
+  <si>
+    <t>Update domain model</t>
+  </si>
+  <si>
+    <t>Create driver class</t>
+  </si>
+  <si>
+    <t>Update test plan</t>
+  </si>
+  <si>
+    <t>Created test plan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -68,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,11 +176,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,19 +500,19 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -504,75 +535,88 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -580,7 +624,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -588,7 +632,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -596,7 +640,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -604,7 +648,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -612,7 +656,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -620,7 +664,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -628,7 +672,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -636,7 +680,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -644,7 +688,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -652,7 +696,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -660,7 +704,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -668,7 +712,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -676,7 +720,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -684,7 +728,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -692,7 +736,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -700,7 +744,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -708,7 +752,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -716,7 +760,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -724,7 +768,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -732,7 +776,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -740,7 +784,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -748,7 +792,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -756,7 +800,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -764,7 +808,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -772,7 +816,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -780,7 +824,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -788,7 +832,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -796,7 +840,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -804,7 +848,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -812,7 +856,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -820,7 +864,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -828,7 +872,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -836,7 +880,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -844,7 +888,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -852,7 +896,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -860,7 +904,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -868,7 +912,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -876,7 +920,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -884,7 +928,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -892,7 +936,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -900,7 +944,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -908,7 +952,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -916,7 +960,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -924,7 +968,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -932,7 +976,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -940,7 +984,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -948,7 +992,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -956,7 +1000,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -964,7 +1008,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -972,7 +1016,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -980,7 +1024,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -988,7 +1032,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -996,7 +1040,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -1004,7 +1048,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -1012,7 +1056,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -1020,7 +1064,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -1028,7 +1072,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -1036,7 +1080,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -1044,7 +1088,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1052,7 +1096,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -1060,7 +1104,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -1068,7 +1112,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -1076,7 +1120,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -1084,7 +1128,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -1092,7 +1136,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -1100,7 +1144,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -1108,7 +1152,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -1116,7 +1160,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -1124,7 +1168,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -1132,7 +1176,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -1140,7 +1184,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -1148,7 +1192,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -1156,7 +1200,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -1164,7 +1208,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -1172,7 +1216,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -1180,7 +1224,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -1188,7 +1232,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -1196,7 +1240,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -1204,7 +1248,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -1212,7 +1256,7 @@
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -1220,7 +1264,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -1228,7 +1272,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -1236,7 +1280,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -1244,7 +1288,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -1252,7 +1296,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -1260,7 +1304,7 @@
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -1268,7 +1312,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -1276,7 +1320,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -1284,7 +1328,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -1292,7 +1336,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -1300,7 +1344,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -1308,7 +1352,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -1316,7 +1360,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -1324,7 +1368,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -1332,7 +1376,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -1340,7 +1384,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -1348,7 +1392,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -1356,7 +1400,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -1364,7 +1408,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -1372,7 +1416,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -1380,7 +1424,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -1388,7 +1432,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -1396,7 +1440,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -1404,7 +1448,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -1412,7 +1456,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -1420,7 +1464,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -1428,7 +1472,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -1436,7 +1480,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -1444,7 +1488,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -1452,7 +1496,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -1460,7 +1504,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -1468,7 +1512,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -1476,7 +1520,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -1484,7 +1528,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -1492,7 +1536,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -1500,7 +1544,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -1508,7 +1552,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -1516,7 +1560,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -1524,7 +1568,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -1532,7 +1576,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -1540,7 +1584,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -1548,7 +1592,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -1556,7 +1600,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -1564,7 +1608,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -1572,7 +1616,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -1580,7 +1624,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -1588,7 +1632,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -1596,7 +1640,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
     </row>
-    <row r="137" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -1604,7 +1648,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -1612,7 +1656,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
     </row>
-    <row r="139" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -1620,7 +1664,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -1628,7 +1672,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -1636,7 +1680,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -1644,7 +1688,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -1652,7 +1696,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -1660,7 +1704,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -1668,7 +1712,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -1676,7 +1720,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -1684,7 +1728,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -1692,7 +1736,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -1700,7 +1744,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -1708,7 +1752,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -1716,7 +1760,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -1724,7 +1768,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -1732,7 +1776,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -1740,7 +1784,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
     </row>
-    <row r="155" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -1748,7 +1792,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -1756,7 +1800,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -1764,7 +1808,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -1772,7 +1816,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -1780,7 +1824,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -1788,7 +1832,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -1796,7 +1840,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -1804,7 +1848,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -1812,7 +1856,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -1820,7 +1864,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -1828,7 +1872,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -1836,7 +1880,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -1844,7 +1888,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -1852,7 +1896,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -1860,7 +1904,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -1868,7 +1912,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -1876,7 +1920,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -1884,7 +1928,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -1892,7 +1936,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -1900,7 +1944,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -1908,7 +1952,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -1916,7 +1960,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -1924,7 +1968,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -1932,7 +1976,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -1940,7 +1984,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -1948,7 +1992,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -1956,7 +2000,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -1964,7 +2008,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -1972,7 +2016,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -1980,7 +2024,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -1988,7 +2032,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -1996,7 +2040,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -2004,7 +2048,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -2012,7 +2056,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -2020,7 +2064,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -2028,7 +2072,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -2036,7 +2080,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -2044,7 +2088,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -2052,7 +2096,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -2060,7 +2104,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -2068,7 +2112,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -2076,7 +2120,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -2084,7 +2128,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -2092,7 +2136,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -2100,7 +2144,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -2108,7 +2152,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -2116,7 +2160,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -2124,7 +2168,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="6"/>
     </row>
-    <row r="203" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -2132,7 +2176,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
     </row>
-    <row r="204" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
@@ -2140,7 +2184,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
     </row>
-    <row r="205" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -2148,7 +2192,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
     </row>
-    <row r="206" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -2156,7 +2200,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="6"/>
     </row>
-    <row r="207" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -2164,7 +2208,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
     </row>
-    <row r="208" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -2172,7 +2216,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="6"/>
     </row>
-    <row r="209" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -2180,7 +2224,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="6"/>
     </row>
-    <row r="210" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -2188,7 +2232,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
     </row>
-    <row r="211" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -2196,7 +2240,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -2204,7 +2248,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="6"/>
     </row>
-    <row r="213" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -2212,7 +2256,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -2220,7 +2264,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -2228,7 +2272,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -2236,7 +2280,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -2244,7 +2288,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -2252,7 +2296,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -2260,7 +2304,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -2268,7 +2312,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -2276,7 +2320,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -2284,7 +2328,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -2292,7 +2336,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
@@ -2300,7 +2344,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
@@ -2308,7 +2352,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
@@ -2316,7 +2360,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
@@ -2324,7 +2368,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -2332,7 +2376,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
@@ -2340,7 +2384,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -2348,7 +2392,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
@@ -2356,7 +2400,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -2364,7 +2408,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
@@ -2372,7 +2416,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -2380,7 +2424,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -2388,7 +2432,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -2396,7 +2440,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -2404,7 +2448,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -2412,7 +2456,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
@@ -2420,7 +2464,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
@@ -2428,7 +2472,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -2436,7 +2480,7 @@
       <c r="F241" s="5"/>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -2444,7 +2488,7 @@
       <c r="F242" s="5"/>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -2452,7 +2496,7 @@
       <c r="F243" s="5"/>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
@@ -2460,7 +2504,7 @@
       <c r="F244" s="5"/>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -2468,7 +2512,7 @@
       <c r="F245" s="5"/>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
@@ -2476,7 +2520,7 @@
       <c r="F246" s="5"/>
       <c r="G246" s="6"/>
     </row>
-    <row r="247" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
@@ -2484,7 +2528,7 @@
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
@@ -2492,7 +2536,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -2500,7 +2544,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
@@ -2508,7 +2552,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
@@ -2516,7 +2560,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
@@ -2524,7 +2568,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
@@ -2532,7 +2576,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
@@ -2540,7 +2584,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
@@ -2548,7 +2592,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
@@ -2556,7 +2600,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
@@ -2564,7 +2608,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
@@ -2572,7 +2616,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
@@ -2580,7 +2624,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
@@ -2588,7 +2632,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -2596,7 +2640,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
@@ -2604,7 +2648,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
@@ -2612,7 +2656,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
@@ -2620,7 +2664,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
@@ -2628,7 +2672,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -2636,7 +2680,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
@@ -2644,7 +2688,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
@@ -2652,7 +2696,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="6"/>
     </row>
-    <row r="269" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
@@ -2660,7 +2704,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
@@ -2668,7 +2712,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
@@ -2676,7 +2720,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
@@ -2684,7 +2728,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
@@ -2692,7 +2736,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
@@ -2700,7 +2744,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
@@ -2708,7 +2752,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
@@ -2716,7 +2760,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
@@ -2724,7 +2768,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
@@ -2732,7 +2776,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
@@ -2740,7 +2784,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
@@ -2748,7 +2792,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="6"/>
     </row>
-    <row r="281" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
@@ -2756,7 +2800,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="6"/>
     </row>
-    <row r="282" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
@@ -2764,7 +2808,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
@@ -2772,7 +2816,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="6"/>
     </row>
-    <row r="284" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
@@ -2780,7 +2824,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="6"/>
     </row>
-    <row r="285" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
@@ -2788,7 +2832,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
@@ -2796,7 +2840,7 @@
       <c r="F286" s="5"/>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
@@ -2804,7 +2848,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="6"/>
     </row>
-    <row r="288" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
@@ -2812,7 +2856,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="6"/>
     </row>
-    <row r="289" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
@@ -2820,7 +2864,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="6"/>
     </row>
-    <row r="290" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
@@ -2828,7 +2872,7 @@
       <c r="F290" s="5"/>
       <c r="G290" s="6"/>
     </row>
-    <row r="291" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
@@ -2836,7 +2880,7 @@
       <c r="F291" s="5"/>
       <c r="G291" s="6"/>
     </row>
-    <row r="292" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
@@ -2844,7 +2888,7 @@
       <c r="F292" s="5"/>
       <c r="G292" s="6"/>
     </row>
-    <row r="293" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
@@ -2852,7 +2896,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
@@ -2860,7 +2904,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="6"/>
     </row>
-    <row r="295" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
@@ -2868,7 +2912,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
@@ -2876,7 +2920,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="6"/>
     </row>
-    <row r="297" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
@@ -2884,7 +2928,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
@@ -2892,7 +2936,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="6"/>
     </row>
-    <row r="299" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
@@ -2900,7 +2944,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
@@ -2908,7 +2952,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="6"/>
     </row>
-    <row r="301" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
@@ -2916,7 +2960,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
@@ -2924,7 +2968,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="6"/>
     </row>
-    <row r="303" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
@@ -2932,7 +2976,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
@@ -2940,7 +2984,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="6"/>
     </row>
-    <row r="305" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
@@ -2948,7 +2992,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
@@ -2956,7 +3000,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="6"/>
     </row>
-    <row r="307" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
@@ -2964,7 +3008,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
@@ -2972,7 +3016,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="6"/>
     </row>
-    <row r="309" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
@@ -2980,7 +3024,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
@@ -2988,7 +3032,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="6"/>
     </row>
-    <row r="311" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
@@ -2996,7 +3040,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
@@ -3004,7 +3048,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
@@ -3012,7 +3056,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
@@ -3020,7 +3064,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
@@ -3028,7 +3072,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
@@ -3036,7 +3080,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
@@ -3044,7 +3088,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
@@ -3052,7 +3096,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
@@ -3060,7 +3104,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
@@ -3068,7 +3112,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="6"/>
     </row>
-    <row r="321" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
@@ -3076,7 +3120,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
@@ -3084,7 +3128,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="6"/>
     </row>
-    <row r="323" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
@@ -3092,7 +3136,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="6"/>
     </row>
-    <row r="324" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
@@ -3100,7 +3144,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="6"/>
     </row>
-    <row r="325" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
@@ -3108,7 +3152,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
@@ -3116,7 +3160,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="6"/>
     </row>
-    <row r="327" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
@@ -3124,7 +3168,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="6"/>
     </row>
-    <row r="328" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
@@ -3132,7 +3176,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
@@ -3140,7 +3184,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="6"/>
     </row>
-    <row r="330" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
@@ -3148,7 +3192,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="6"/>
     </row>
-    <row r="331" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
@@ -3156,7 +3200,7 @@
       <c r="F331" s="5"/>
       <c r="G331" s="6"/>
     </row>
-    <row r="332" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
@@ -3164,7 +3208,7 @@
       <c r="F332" s="5"/>
       <c r="G332" s="6"/>
     </row>
-    <row r="333" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
@@ -3172,7 +3216,7 @@
       <c r="F333" s="5"/>
       <c r="G333" s="6"/>
     </row>
-    <row r="334" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
@@ -3180,7 +3224,7 @@
       <c r="F334" s="5"/>
       <c r="G334" s="6"/>
     </row>
-    <row r="335" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
@@ -3188,7 +3232,7 @@
       <c r="F335" s="5"/>
       <c r="G335" s="6"/>
     </row>
-    <row r="336" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
@@ -3196,7 +3240,7 @@
       <c r="F336" s="5"/>
       <c r="G336" s="6"/>
     </row>
-    <row r="337" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
@@ -3204,7 +3248,7 @@
       <c r="F337" s="5"/>
       <c r="G337" s="6"/>
     </row>
-    <row r="338" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
@@ -3212,7 +3256,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="6"/>
     </row>
-    <row r="339" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
@@ -3220,7 +3264,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="6"/>
     </row>
-    <row r="340" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
@@ -3228,7 +3272,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="6"/>
     </row>
-    <row r="341" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
@@ -3236,7 +3280,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="6"/>
     </row>
-    <row r="342" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
@@ -3244,7 +3288,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="6"/>
     </row>
-    <row r="343" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
@@ -3252,7 +3296,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="6"/>
     </row>
-    <row r="344" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
@@ -3260,7 +3304,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="6"/>
     </row>
-    <row r="345" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
@@ -3268,7 +3312,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="6"/>
     </row>
-    <row r="346" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
@@ -3276,7 +3320,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="6"/>
     </row>
-    <row r="347" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
@@ -3284,7 +3328,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="6"/>
     </row>
-    <row r="348" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
@@ -3292,7 +3336,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="6"/>
     </row>
-    <row r="349" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
@@ -3300,7 +3344,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="6"/>
     </row>
-    <row r="350" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
@@ -3308,7 +3352,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="6"/>
     </row>
-    <row r="351" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
@@ -3316,7 +3360,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="6"/>
     </row>
-    <row r="352" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
@@ -3324,7 +3368,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="6"/>
     </row>
-    <row r="353" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
@@ -3332,7 +3376,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="6"/>
     </row>
-    <row r="354" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
@@ -3340,7 +3384,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="6"/>
     </row>
-    <row r="355" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
@@ -3348,7 +3392,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="6"/>
     </row>
-    <row r="356" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
@@ -3356,7 +3400,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="6"/>
     </row>
-    <row r="357" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
@@ -3364,7 +3408,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="6"/>
     </row>
-    <row r="358" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
@@ -3372,7 +3416,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="6"/>
     </row>
-    <row r="359" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
@@ -3380,7 +3424,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="6"/>
     </row>
-    <row r="360" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
@@ -3388,7 +3432,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="6"/>
     </row>
-    <row r="361" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
@@ -3396,7 +3440,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="6"/>
     </row>
-    <row r="362" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
@@ -3404,7 +3448,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="6"/>
     </row>
-    <row r="363" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
@@ -3412,7 +3456,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
@@ -3420,7 +3464,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="6"/>
     </row>
-    <row r="365" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
@@ -3428,7 +3472,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="6"/>
     </row>
-    <row r="366" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
@@ -3436,7 +3480,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="6"/>
     </row>
-    <row r="367" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
@@ -3444,7 +3488,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
@@ -3452,7 +3496,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="6"/>
     </row>
-    <row r="369" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
@@ -3460,7 +3504,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="6"/>
     </row>
-    <row r="370" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
@@ -3468,7 +3512,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="6"/>
     </row>
-    <row r="371" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
@@ -3476,7 +3520,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="6"/>
     </row>
-    <row r="372" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
@@ -3484,7 +3528,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="6"/>
     </row>
-    <row r="373" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
@@ -3492,7 +3536,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="6"/>
     </row>
-    <row r="374" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
@@ -3500,7 +3544,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
@@ -3508,7 +3552,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="6"/>
     </row>
-    <row r="376" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
@@ -3516,7 +3560,7 @@
       <c r="F376" s="5"/>
       <c r="G376" s="6"/>
     </row>
-    <row r="377" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
@@ -3524,7 +3568,7 @@
       <c r="F377" s="5"/>
       <c r="G377" s="6"/>
     </row>
-    <row r="378" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
@@ -3532,7 +3576,7 @@
       <c r="F378" s="5"/>
       <c r="G378" s="6"/>
     </row>
-    <row r="379" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
@@ -3540,7 +3584,7 @@
       <c r="F379" s="5"/>
       <c r="G379" s="6"/>
     </row>
-    <row r="380" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
@@ -3548,7 +3592,7 @@
       <c r="F380" s="5"/>
       <c r="G380" s="6"/>
     </row>
-    <row r="381" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
@@ -3556,7 +3600,7 @@
       <c r="F381" s="5"/>
       <c r="G381" s="6"/>
     </row>
-    <row r="382" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
@@ -3564,7 +3608,7 @@
       <c r="F382" s="5"/>
       <c r="G382" s="6"/>
     </row>
-    <row r="383" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
@@ -3572,7 +3616,7 @@
       <c r="F383" s="5"/>
       <c r="G383" s="6"/>
     </row>
-    <row r="384" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
@@ -3580,7 +3624,7 @@
       <c r="F384" s="5"/>
       <c r="G384" s="6"/>
     </row>
-    <row r="385" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
@@ -3588,7 +3632,7 @@
       <c r="F385" s="5"/>
       <c r="G385" s="6"/>
     </row>
-    <row r="386" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
@@ -3596,7 +3640,7 @@
       <c r="F386" s="5"/>
       <c r="G386" s="6"/>
     </row>
-    <row r="387" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
@@ -3604,7 +3648,7 @@
       <c r="F387" s="5"/>
       <c r="G387" s="6"/>
     </row>
-    <row r="388" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
@@ -3612,7 +3656,7 @@
       <c r="F388" s="5"/>
       <c r="G388" s="6"/>
     </row>
-    <row r="389" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
@@ -3620,7 +3664,7 @@
       <c r="F389" s="5"/>
       <c r="G389" s="6"/>
     </row>
-    <row r="390" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
@@ -3628,7 +3672,7 @@
       <c r="F390" s="5"/>
       <c r="G390" s="6"/>
     </row>
-    <row r="391" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
@@ -3636,7 +3680,7 @@
       <c r="F391" s="5"/>
       <c r="G391" s="6"/>
     </row>
-    <row r="392" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
@@ -3644,7 +3688,7 @@
       <c r="F392" s="5"/>
       <c r="G392" s="6"/>
     </row>
-    <row r="393" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
@@ -3652,7 +3696,7 @@
       <c r="F393" s="5"/>
       <c r="G393" s="6"/>
     </row>
-    <row r="394" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
@@ -3660,7 +3704,7 @@
       <c r="F394" s="5"/>
       <c r="G394" s="6"/>
     </row>
-    <row r="395" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
@@ -3668,7 +3712,7 @@
       <c r="F395" s="5"/>
       <c r="G395" s="6"/>
     </row>
-    <row r="396" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
@@ -3676,7 +3720,7 @@
       <c r="F396" s="5"/>
       <c r="G396" s="6"/>
     </row>
-    <row r="397" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
@@ -3684,7 +3728,7 @@
       <c r="F397" s="5"/>
       <c r="G397" s="6"/>
     </row>
-    <row r="398" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
@@ -3692,7 +3736,7 @@
       <c r="F398" s="5"/>
       <c r="G398" s="6"/>
     </row>
-    <row r="399" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
@@ -3700,7 +3744,7 @@
       <c r="F399" s="5"/>
       <c r="G399" s="6"/>
     </row>
-    <row r="400" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
@@ -3708,7 +3752,7 @@
       <c r="F400" s="5"/>
       <c r="G400" s="6"/>
     </row>
-    <row r="401" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
@@ -3716,7 +3760,7 @@
       <c r="F401" s="5"/>
       <c r="G401" s="6"/>
     </row>
-    <row r="402" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
@@ -3724,7 +3768,7 @@
       <c r="F402" s="5"/>
       <c r="G402" s="6"/>
     </row>
-    <row r="403" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
@@ -3732,7 +3776,7 @@
       <c r="F403" s="5"/>
       <c r="G403" s="6"/>
     </row>
-    <row r="404" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
@@ -3740,7 +3784,7 @@
       <c r="F404" s="5"/>
       <c r="G404" s="6"/>
     </row>
-    <row r="405" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
@@ -3748,7 +3792,7 @@
       <c r="F405" s="5"/>
       <c r="G405" s="6"/>
     </row>
-    <row r="406" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
@@ -3756,7 +3800,7 @@
       <c r="F406" s="5"/>
       <c r="G406" s="6"/>
     </row>
-    <row r="407" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
@@ -3764,7 +3808,7 @@
       <c r="F407" s="5"/>
       <c r="G407" s="6"/>
     </row>
-    <row r="408" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
@@ -3772,7 +3816,7 @@
       <c r="F408" s="5"/>
       <c r="G408" s="6"/>
     </row>
-    <row r="409" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
@@ -3780,7 +3824,7 @@
       <c r="F409" s="5"/>
       <c r="G409" s="6"/>
     </row>
-    <row r="410" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
@@ -3788,7 +3832,7 @@
       <c r="F410" s="5"/>
       <c r="G410" s="6"/>
     </row>
-    <row r="411" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
@@ -3796,7 +3840,7 @@
       <c r="F411" s="5"/>
       <c r="G411" s="6"/>
     </row>
-    <row r="412" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
@@ -3804,7 +3848,7 @@
       <c r="F412" s="5"/>
       <c r="G412" s="6"/>
     </row>
-    <row r="413" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
@@ -3812,7 +3856,7 @@
       <c r="F413" s="5"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
@@ -3820,7 +3864,7 @@
       <c r="F414" s="5"/>
       <c r="G414" s="6"/>
     </row>
-    <row r="415" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
@@ -3828,7 +3872,7 @@
       <c r="F415" s="5"/>
       <c r="G415" s="6"/>
     </row>
-    <row r="416" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
@@ -3836,7 +3880,7 @@
       <c r="F416" s="5"/>
       <c r="G416" s="6"/>
     </row>
-    <row r="417" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
@@ -3844,7 +3888,7 @@
       <c r="F417" s="5"/>
       <c r="G417" s="6"/>
     </row>
-    <row r="418" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
@@ -3852,7 +3896,7 @@
       <c r="F418" s="5"/>
       <c r="G418" s="6"/>
     </row>
-    <row r="419" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
@@ -3860,7 +3904,7 @@
       <c r="F419" s="5"/>
       <c r="G419" s="6"/>
     </row>
-    <row r="420" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
@@ -3868,7 +3912,7 @@
       <c r="F420" s="5"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
@@ -3876,7 +3920,7 @@
       <c r="F421" s="5"/>
       <c r="G421" s="6"/>
     </row>
-    <row r="422" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
@@ -3884,7 +3928,7 @@
       <c r="F422" s="5"/>
       <c r="G422" s="6"/>
     </row>
-    <row r="423" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
@@ -3892,7 +3936,7 @@
       <c r="F423" s="5"/>
       <c r="G423" s="6"/>
     </row>
-    <row r="424" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
@@ -3900,7 +3944,7 @@
       <c r="F424" s="5"/>
       <c r="G424" s="6"/>
     </row>
-    <row r="425" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
@@ -3908,7 +3952,7 @@
       <c r="F425" s="5"/>
       <c r="G425" s="6"/>
     </row>
-    <row r="426" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
@@ -3916,7 +3960,7 @@
       <c r="F426" s="5"/>
       <c r="G426" s="6"/>
     </row>
-    <row r="427" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
@@ -3924,7 +3968,7 @@
       <c r="F427" s="5"/>
       <c r="G427" s="6"/>
     </row>
-    <row r="428" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
@@ -3932,7 +3976,7 @@
       <c r="F428" s="5"/>
       <c r="G428" s="6"/>
     </row>
-    <row r="429" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
@@ -3940,7 +3984,7 @@
       <c r="F429" s="5"/>
       <c r="G429" s="6"/>
     </row>
-    <row r="430" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
@@ -3948,7 +3992,7 @@
       <c r="F430" s="5"/>
       <c r="G430" s="6"/>
     </row>
-    <row r="431" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
@@ -3956,7 +4000,7 @@
       <c r="F431" s="5"/>
       <c r="G431" s="6"/>
     </row>
-    <row r="432" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
@@ -3964,7 +4008,7 @@
       <c r="F432" s="5"/>
       <c r="G432" s="6"/>
     </row>
-    <row r="433" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
@@ -3972,7 +4016,7 @@
       <c r="F433" s="5"/>
       <c r="G433" s="6"/>
     </row>
-    <row r="434" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
@@ -3980,7 +4024,7 @@
       <c r="F434" s="5"/>
       <c r="G434" s="6"/>
     </row>
-    <row r="435" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
@@ -3988,7 +4032,7 @@
       <c r="F435" s="5"/>
       <c r="G435" s="6"/>
     </row>
-    <row r="436" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
@@ -3996,7 +4040,7 @@
       <c r="F436" s="5"/>
       <c r="G436" s="6"/>
     </row>
-    <row r="437" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
@@ -4004,7 +4048,7 @@
       <c r="F437" s="5"/>
       <c r="G437" s="6"/>
     </row>
-    <row r="438" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
@@ -4012,7 +4056,7 @@
       <c r="F438" s="5"/>
       <c r="G438" s="6"/>
     </row>
-    <row r="439" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
@@ -4020,7 +4064,7 @@
       <c r="F439" s="5"/>
       <c r="G439" s="6"/>
     </row>
-    <row r="440" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
@@ -4028,7 +4072,7 @@
       <c r="F440" s="5"/>
       <c r="G440" s="6"/>
     </row>
-    <row r="441" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
@@ -4036,7 +4080,7 @@
       <c r="F441" s="5"/>
       <c r="G441" s="6"/>
     </row>
-    <row r="442" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
@@ -4044,7 +4088,7 @@
       <c r="F442" s="5"/>
       <c r="G442" s="6"/>
     </row>
-    <row r="443" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
@@ -4052,7 +4096,7 @@
       <c r="F443" s="5"/>
       <c r="G443" s="6"/>
     </row>
-    <row r="444" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
@@ -4060,7 +4104,7 @@
       <c r="F444" s="5"/>
       <c r="G444" s="6"/>
     </row>
-    <row r="445" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
@@ -4068,7 +4112,7 @@
       <c r="F445" s="5"/>
       <c r="G445" s="6"/>
     </row>
-    <row r="446" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
@@ -4076,7 +4120,7 @@
       <c r="F446" s="5"/>
       <c r="G446" s="6"/>
     </row>
-    <row r="447" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
@@ -4084,7 +4128,7 @@
       <c r="F447" s="5"/>
       <c r="G447" s="6"/>
     </row>
-    <row r="448" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
@@ -4092,7 +4136,7 @@
       <c r="F448" s="5"/>
       <c r="G448" s="6"/>
     </row>
-    <row r="449" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
@@ -4100,7 +4144,7 @@
       <c r="F449" s="5"/>
       <c r="G449" s="6"/>
     </row>
-    <row r="450" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
@@ -4108,7 +4152,7 @@
       <c r="F450" s="5"/>
       <c r="G450" s="6"/>
     </row>
-    <row r="451" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
@@ -4116,7 +4160,7 @@
       <c r="F451" s="5"/>
       <c r="G451" s="6"/>
     </row>
-    <row r="452" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
@@ -4124,7 +4168,7 @@
       <c r="F452" s="5"/>
       <c r="G452" s="6"/>
     </row>
-    <row r="453" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
@@ -4132,7 +4176,7 @@
       <c r="F453" s="5"/>
       <c r="G453" s="6"/>
     </row>
-    <row r="454" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
@@ -4140,7 +4184,7 @@
       <c r="F454" s="5"/>
       <c r="G454" s="6"/>
     </row>
-    <row r="455" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
@@ -4148,7 +4192,7 @@
       <c r="F455" s="5"/>
       <c r="G455" s="6"/>
     </row>
-    <row r="456" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
@@ -4156,7 +4200,7 @@
       <c r="F456" s="5"/>
       <c r="G456" s="6"/>
     </row>
-    <row r="457" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
@@ -4164,7 +4208,7 @@
       <c r="F457" s="5"/>
       <c r="G457" s="6"/>
     </row>
-    <row r="458" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
@@ -4172,7 +4216,7 @@
       <c r="F458" s="5"/>
       <c r="G458" s="6"/>
     </row>
-    <row r="459" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
@@ -4180,7 +4224,7 @@
       <c r="F459" s="5"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
@@ -4188,7 +4232,7 @@
       <c r="F460" s="5"/>
       <c r="G460" s="6"/>
     </row>
-    <row r="461" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
@@ -4196,7 +4240,7 @@
       <c r="F461" s="5"/>
       <c r="G461" s="6"/>
     </row>
-    <row r="462" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
@@ -4204,7 +4248,7 @@
       <c r="F462" s="5"/>
       <c r="G462" s="6"/>
     </row>
-    <row r="463" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
@@ -4212,7 +4256,7 @@
       <c r="F463" s="5"/>
       <c r="G463" s="6"/>
     </row>
-    <row r="464" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
@@ -4220,7 +4264,7 @@
       <c r="F464" s="5"/>
       <c r="G464" s="6"/>
     </row>
-    <row r="465" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
@@ -4228,7 +4272,7 @@
       <c r="F465" s="5"/>
       <c r="G465" s="6"/>
     </row>
-    <row r="466" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
@@ -4236,7 +4280,7 @@
       <c r="F466" s="5"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
@@ -4244,7 +4288,7 @@
       <c r="F467" s="5"/>
       <c r="G467" s="6"/>
     </row>
-    <row r="468" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
@@ -4252,7 +4296,7 @@
       <c r="F468" s="5"/>
       <c r="G468" s="6"/>
     </row>
-    <row r="469" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
@@ -4260,7 +4304,7 @@
       <c r="F469" s="5"/>
       <c r="G469" s="6"/>
     </row>
-    <row r="470" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
@@ -4268,7 +4312,7 @@
       <c r="F470" s="5"/>
       <c r="G470" s="6"/>
     </row>
-    <row r="471" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
@@ -4276,7 +4320,7 @@
       <c r="F471" s="5"/>
       <c r="G471" s="6"/>
     </row>
-    <row r="472" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
@@ -4284,7 +4328,7 @@
       <c r="F472" s="5"/>
       <c r="G472" s="6"/>
     </row>
-    <row r="473" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
@@ -4292,7 +4336,7 @@
       <c r="F473" s="5"/>
       <c r="G473" s="6"/>
     </row>
-    <row r="474" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
@@ -4300,7 +4344,7 @@
       <c r="F474" s="5"/>
       <c r="G474" s="6"/>
     </row>
-    <row r="475" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
@@ -4308,7 +4352,7 @@
       <c r="F475" s="5"/>
       <c r="G475" s="6"/>
     </row>
-    <row r="476" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
@@ -4316,7 +4360,7 @@
       <c r="F476" s="5"/>
       <c r="G476" s="6"/>
     </row>
-    <row r="477" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
@@ -4324,7 +4368,7 @@
       <c r="F477" s="5"/>
       <c r="G477" s="6"/>
     </row>
-    <row r="478" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
@@ -4332,7 +4376,7 @@
       <c r="F478" s="5"/>
       <c r="G478" s="6"/>
     </row>
-    <row r="479" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
@@ -4340,7 +4384,7 @@
       <c r="F479" s="5"/>
       <c r="G479" s="6"/>
     </row>
-    <row r="480" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
@@ -4348,7 +4392,7 @@
       <c r="F480" s="5"/>
       <c r="G480" s="6"/>
     </row>
-    <row r="481" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
@@ -4356,7 +4400,7 @@
       <c r="F481" s="5"/>
       <c r="G481" s="6"/>
     </row>
-    <row r="482" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
@@ -4364,7 +4408,7 @@
       <c r="F482" s="5"/>
       <c r="G482" s="6"/>
     </row>
-    <row r="483" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
@@ -4372,7 +4416,7 @@
       <c r="F483" s="5"/>
       <c r="G483" s="6"/>
     </row>
-    <row r="484" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
@@ -4380,7 +4424,7 @@
       <c r="F484" s="5"/>
       <c r="G484" s="6"/>
     </row>
-    <row r="485" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
@@ -4388,7 +4432,7 @@
       <c r="F485" s="5"/>
       <c r="G485" s="6"/>
     </row>
-    <row r="486" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
@@ -4396,7 +4440,7 @@
       <c r="F486" s="5"/>
       <c r="G486" s="6"/>
     </row>
-    <row r="487" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
@@ -4404,7 +4448,7 @@
       <c r="F487" s="5"/>
       <c r="G487" s="6"/>
     </row>
-    <row r="488" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
@@ -4412,7 +4456,7 @@
       <c r="F488" s="5"/>
       <c r="G488" s="6"/>
     </row>
-    <row r="489" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
@@ -4420,7 +4464,7 @@
       <c r="F489" s="5"/>
       <c r="G489" s="6"/>
     </row>
-    <row r="490" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
@@ -4428,7 +4472,7 @@
       <c r="F490" s="5"/>
       <c r="G490" s="6"/>
     </row>
-    <row r="491" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
@@ -4436,7 +4480,7 @@
       <c r="F491" s="5"/>
       <c r="G491" s="6"/>
     </row>
-    <row r="492" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
@@ -4444,7 +4488,7 @@
       <c r="F492" s="5"/>
       <c r="G492" s="6"/>
     </row>
-    <row r="493" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
@@ -4452,7 +4496,7 @@
       <c r="F493" s="5"/>
       <c r="G493" s="6"/>
     </row>
-    <row r="494" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
@@ -4460,7 +4504,7 @@
       <c r="F494" s="5"/>
       <c r="G494" s="6"/>
     </row>
-    <row r="495" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
@@ -4468,7 +4512,7 @@
       <c r="F495" s="5"/>
       <c r="G495" s="6"/>
     </row>
-    <row r="496" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
@@ -4476,7 +4520,7 @@
       <c r="F496" s="5"/>
       <c r="G496" s="6"/>
     </row>
-    <row r="497" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
@@ -4484,7 +4528,7 @@
       <c r="F497" s="5"/>
       <c r="G497" s="6"/>
     </row>
-    <row r="498" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
@@ -4492,7 +4536,7 @@
       <c r="F498" s="5"/>
       <c r="G498" s="6"/>
     </row>
-    <row r="499" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
@@ -4500,7 +4544,7 @@
       <c r="F499" s="5"/>
       <c r="G499" s="6"/>
     </row>
-    <row r="500" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
@@ -4508,7 +4552,7 @@
       <c r="F500" s="5"/>
       <c r="G500" s="6"/>
     </row>
-    <row r="501" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
@@ -4516,7 +4560,7 @@
       <c r="F501" s="5"/>
       <c r="G501" s="6"/>
     </row>
-    <row r="502" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
@@ -4524,7 +4568,7 @@
       <c r="F502" s="5"/>
       <c r="G502" s="6"/>
     </row>
-    <row r="503" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
@@ -4532,7 +4576,7 @@
       <c r="F503" s="5"/>
       <c r="G503" s="6"/>
     </row>
-    <row r="504" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
@@ -4540,7 +4584,7 @@
       <c r="F504" s="5"/>
       <c r="G504" s="6"/>
     </row>
-    <row r="505" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
@@ -4548,7 +4592,7 @@
       <c r="F505" s="5"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
@@ -4556,7 +4600,7 @@
       <c r="F506" s="5"/>
       <c r="G506" s="6"/>
     </row>
-    <row r="507" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
@@ -4564,7 +4608,7 @@
       <c r="F507" s="5"/>
       <c r="G507" s="6"/>
     </row>
-    <row r="508" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
@@ -4572,7 +4616,7 @@
       <c r="F508" s="5"/>
       <c r="G508" s="6"/>
     </row>
-    <row r="509" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
@@ -4580,7 +4624,7 @@
       <c r="F509" s="5"/>
       <c r="G509" s="6"/>
     </row>
-    <row r="510" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
@@ -4588,7 +4632,7 @@
       <c r="F510" s="5"/>
       <c r="G510" s="6"/>
     </row>
-    <row r="511" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
@@ -4596,7 +4640,7 @@
       <c r="F511" s="5"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
@@ -4604,7 +4648,7 @@
       <c r="F512" s="5"/>
       <c r="G512" s="6"/>
     </row>
-    <row r="513" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
@@ -4612,7 +4656,7 @@
       <c r="F513" s="5"/>
       <c r="G513" s="6"/>
     </row>
-    <row r="514" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
@@ -4620,7 +4664,7 @@
       <c r="F514" s="5"/>
       <c r="G514" s="6"/>
     </row>
-    <row r="515" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
@@ -4628,7 +4672,7 @@
       <c r="F515" s="5"/>
       <c r="G515" s="6"/>
     </row>
-    <row r="516" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
@@ -4636,7 +4680,7 @@
       <c r="F516" s="5"/>
       <c r="G516" s="6"/>
     </row>
-    <row r="517" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
@@ -4644,7 +4688,7 @@
       <c r="F517" s="5"/>
       <c r="G517" s="6"/>
     </row>
-    <row r="518" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
@@ -4652,7 +4696,7 @@
       <c r="F518" s="5"/>
       <c r="G518" s="6"/>
     </row>
-    <row r="519" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
@@ -4660,7 +4704,7 @@
       <c r="F519" s="5"/>
       <c r="G519" s="6"/>
     </row>
-    <row r="520" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
@@ -4668,7 +4712,7 @@
       <c r="F520" s="5"/>
       <c r="G520" s="6"/>
     </row>
-    <row r="521" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
@@ -4676,7 +4720,7 @@
       <c r="F521" s="5"/>
       <c r="G521" s="6"/>
     </row>
-    <row r="522" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
@@ -4684,7 +4728,7 @@
       <c r="F522" s="5"/>
       <c r="G522" s="6"/>
     </row>
-    <row r="523" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
@@ -4692,7 +4736,7 @@
       <c r="F523" s="5"/>
       <c r="G523" s="6"/>
     </row>
-    <row r="524" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
@@ -4700,7 +4744,7 @@
       <c r="F524" s="5"/>
       <c r="G524" s="6"/>
     </row>
-    <row r="525" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
@@ -4708,7 +4752,7 @@
       <c r="F525" s="5"/>
       <c r="G525" s="6"/>
     </row>
-    <row r="526" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
@@ -4716,7 +4760,7 @@
       <c r="F526" s="5"/>
       <c r="G526" s="6"/>
     </row>
-    <row r="527" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
@@ -4724,7 +4768,7 @@
       <c r="F527" s="5"/>
       <c r="G527" s="6"/>
     </row>
-    <row r="528" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
@@ -4732,7 +4776,7 @@
       <c r="F528" s="5"/>
       <c r="G528" s="6"/>
     </row>
-    <row r="529" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
@@ -4740,7 +4784,7 @@
       <c r="F529" s="5"/>
       <c r="G529" s="6"/>
     </row>
-    <row r="530" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
@@ -4748,7 +4792,7 @@
       <c r="F530" s="5"/>
       <c r="G530" s="6"/>
     </row>
-    <row r="531" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
@@ -4756,7 +4800,7 @@
       <c r="F531" s="5"/>
       <c r="G531" s="6"/>
     </row>
-    <row r="532" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
@@ -4764,7 +4808,7 @@
       <c r="F532" s="5"/>
       <c r="G532" s="6"/>
     </row>
-    <row r="533" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
@@ -4772,7 +4816,7 @@
       <c r="F533" s="5"/>
       <c r="G533" s="6"/>
     </row>
-    <row r="534" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
@@ -4780,7 +4824,7 @@
       <c r="F534" s="5"/>
       <c r="G534" s="6"/>
     </row>
-    <row r="535" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
@@ -4788,7 +4832,7 @@
       <c r="F535" s="5"/>
       <c r="G535" s="6"/>
     </row>
-    <row r="536" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
@@ -4796,7 +4840,7 @@
       <c r="F536" s="5"/>
       <c r="G536" s="6"/>
     </row>
-    <row r="537" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
@@ -4804,7 +4848,7 @@
       <c r="F537" s="5"/>
       <c r="G537" s="6"/>
     </row>
-    <row r="538" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
@@ -4812,7 +4856,7 @@
       <c r="F538" s="5"/>
       <c r="G538" s="6"/>
     </row>
-    <row r="539" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
@@ -4820,7 +4864,7 @@
       <c r="F539" s="5"/>
       <c r="G539" s="6"/>
     </row>
-    <row r="540" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
@@ -4828,7 +4872,7 @@
       <c r="F540" s="5"/>
       <c r="G540" s="6"/>
     </row>
-    <row r="541" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
@@ -4836,7 +4880,7 @@
       <c r="F541" s="5"/>
       <c r="G541" s="6"/>
     </row>
-    <row r="542" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
@@ -4844,7 +4888,7 @@
       <c r="F542" s="5"/>
       <c r="G542" s="6"/>
     </row>
-    <row r="543" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
@@ -4852,7 +4896,7 @@
       <c r="F543" s="5"/>
       <c r="G543" s="6"/>
     </row>
-    <row r="544" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
@@ -4860,7 +4904,7 @@
       <c r="F544" s="5"/>
       <c r="G544" s="6"/>
     </row>
-    <row r="545" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
@@ -4868,7 +4912,7 @@
       <c r="F545" s="5"/>
       <c r="G545" s="6"/>
     </row>
-    <row r="546" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
@@ -4876,7 +4920,7 @@
       <c r="F546" s="5"/>
       <c r="G546" s="6"/>
     </row>
-    <row r="547" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
@@ -4884,7 +4928,7 @@
       <c r="F547" s="5"/>
       <c r="G547" s="6"/>
     </row>
-    <row r="548" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
@@ -4892,7 +4936,7 @@
       <c r="F548" s="5"/>
       <c r="G548" s="6"/>
     </row>
-    <row r="549" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
@@ -4900,7 +4944,7 @@
       <c r="F549" s="5"/>
       <c r="G549" s="6"/>
     </row>
-    <row r="550" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
@@ -4908,7 +4952,7 @@
       <c r="F550" s="5"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
@@ -4916,7 +4960,7 @@
       <c r="F551" s="5"/>
       <c r="G551" s="6"/>
     </row>
-    <row r="552" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
@@ -4924,7 +4968,7 @@
       <c r="F552" s="5"/>
       <c r="G552" s="6"/>
     </row>
-    <row r="553" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
@@ -4932,7 +4976,7 @@
       <c r="F553" s="5"/>
       <c r="G553" s="6"/>
     </row>
-    <row r="554" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
@@ -4940,7 +4984,7 @@
       <c r="F554" s="5"/>
       <c r="G554" s="6"/>
     </row>
-    <row r="555" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
@@ -4948,7 +4992,7 @@
       <c r="F555" s="5"/>
       <c r="G555" s="6"/>
     </row>
-    <row r="556" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
@@ -4956,7 +5000,7 @@
       <c r="F556" s="5"/>
       <c r="G556" s="6"/>
     </row>
-    <row r="557" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
@@ -4964,7 +5008,7 @@
       <c r="F557" s="5"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
@@ -4972,7 +5016,7 @@
       <c r="F558" s="5"/>
       <c r="G558" s="6"/>
     </row>
-    <row r="559" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
@@ -4980,7 +5024,7 @@
       <c r="F559" s="5"/>
       <c r="G559" s="6"/>
     </row>
-    <row r="560" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
@@ -4988,7 +5032,7 @@
       <c r="F560" s="5"/>
       <c r="G560" s="6"/>
     </row>
-    <row r="561" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
@@ -4996,7 +5040,7 @@
       <c r="F561" s="5"/>
       <c r="G561" s="6"/>
     </row>
-    <row r="562" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
@@ -5004,7 +5048,7 @@
       <c r="F562" s="5"/>
       <c r="G562" s="6"/>
     </row>
-    <row r="563" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
@@ -5012,7 +5056,7 @@
       <c r="F563" s="5"/>
       <c r="G563" s="6"/>
     </row>
-    <row r="564" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
@@ -5020,7 +5064,7 @@
       <c r="F564" s="5"/>
       <c r="G564" s="6"/>
     </row>
-    <row r="565" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
@@ -5028,7 +5072,7 @@
       <c r="F565" s="5"/>
       <c r="G565" s="6"/>
     </row>
-    <row r="566" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
@@ -5036,7 +5080,7 @@
       <c r="F566" s="5"/>
       <c r="G566" s="6"/>
     </row>
-    <row r="567" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
@@ -5044,7 +5088,7 @@
       <c r="F567" s="5"/>
       <c r="G567" s="6"/>
     </row>
-    <row r="568" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
@@ -5052,7 +5096,7 @@
       <c r="F568" s="5"/>
       <c r="G568" s="6"/>
     </row>
-    <row r="569" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
@@ -5060,7 +5104,7 @@
       <c r="F569" s="5"/>
       <c r="G569" s="6"/>
     </row>
-    <row r="570" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
@@ -5068,7 +5112,7 @@
       <c r="F570" s="5"/>
       <c r="G570" s="6"/>
     </row>
-    <row r="571" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
@@ -5076,7 +5120,7 @@
       <c r="F571" s="5"/>
       <c r="G571" s="6"/>
     </row>
-    <row r="572" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
@@ -5084,7 +5128,7 @@
       <c r="F572" s="5"/>
       <c r="G572" s="6"/>
     </row>
-    <row r="573" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
@@ -5092,7 +5136,7 @@
       <c r="F573" s="5"/>
       <c r="G573" s="6"/>
     </row>
-    <row r="574" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
@@ -5100,7 +5144,7 @@
       <c r="F574" s="5"/>
       <c r="G574" s="6"/>
     </row>
-    <row r="575" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
@@ -5108,7 +5152,7 @@
       <c r="F575" s="5"/>
       <c r="G575" s="6"/>
     </row>
-    <row r="576" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
@@ -5116,7 +5160,7 @@
       <c r="F576" s="5"/>
       <c r="G576" s="6"/>
     </row>
-    <row r="577" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
@@ -5124,7 +5168,7 @@
       <c r="F577" s="5"/>
       <c r="G577" s="6"/>
     </row>
-    <row r="578" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
@@ -5132,7 +5176,7 @@
       <c r="F578" s="5"/>
       <c r="G578" s="6"/>
     </row>
-    <row r="579" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
@@ -5140,7 +5184,7 @@
       <c r="F579" s="5"/>
       <c r="G579" s="6"/>
     </row>
-    <row r="580" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
@@ -5148,7 +5192,7 @@
       <c r="F580" s="5"/>
       <c r="G580" s="6"/>
     </row>
-    <row r="581" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
@@ -5156,7 +5200,7 @@
       <c r="F581" s="5"/>
       <c r="G581" s="6"/>
     </row>
-    <row r="582" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
@@ -5164,7 +5208,7 @@
       <c r="F582" s="5"/>
       <c r="G582" s="6"/>
     </row>
-    <row r="583" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
@@ -5172,7 +5216,7 @@
       <c r="F583" s="5"/>
       <c r="G583" s="6"/>
     </row>
-    <row r="584" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
@@ -5180,7 +5224,7 @@
       <c r="F584" s="5"/>
       <c r="G584" s="6"/>
     </row>
-    <row r="585" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
@@ -5188,7 +5232,7 @@
       <c r="F585" s="5"/>
       <c r="G585" s="6"/>
     </row>
-    <row r="586" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
@@ -5196,7 +5240,7 @@
       <c r="F586" s="5"/>
       <c r="G586" s="6"/>
     </row>
-    <row r="587" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
@@ -5204,7 +5248,7 @@
       <c r="F587" s="5"/>
       <c r="G587" s="6"/>
     </row>
-    <row r="588" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
@@ -5212,7 +5256,7 @@
       <c r="F588" s="5"/>
       <c r="G588" s="6"/>
     </row>
-    <row r="589" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
@@ -5220,7 +5264,7 @@
       <c r="F589" s="5"/>
       <c r="G589" s="6"/>
     </row>
-    <row r="590" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
@@ -5228,7 +5272,7 @@
       <c r="F590" s="5"/>
       <c r="G590" s="6"/>
     </row>
-    <row r="591" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
@@ -5236,7 +5280,7 @@
       <c r="F591" s="5"/>
       <c r="G591" s="6"/>
     </row>
-    <row r="592" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
@@ -5244,7 +5288,7 @@
       <c r="F592" s="5"/>
       <c r="G592" s="6"/>
     </row>
-    <row r="593" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
@@ -5252,7 +5296,7 @@
       <c r="F593" s="5"/>
       <c r="G593" s="6"/>
     </row>
-    <row r="594" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
@@ -5260,7 +5304,7 @@
       <c r="F594" s="5"/>
       <c r="G594" s="6"/>
     </row>
-    <row r="595" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
@@ -5268,7 +5312,7 @@
       <c r="F595" s="5"/>
       <c r="G595" s="6"/>
     </row>
-    <row r="596" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
@@ -5276,7 +5320,7 @@
       <c r="F596" s="5"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
@@ -5284,7 +5328,7 @@
       <c r="F597" s="5"/>
       <c r="G597" s="6"/>
     </row>
-    <row r="598" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
@@ -5292,7 +5336,7 @@
       <c r="F598" s="5"/>
       <c r="G598" s="6"/>
     </row>
-    <row r="599" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
@@ -5300,7 +5344,7 @@
       <c r="F599" s="5"/>
       <c r="G599" s="6"/>
     </row>
-    <row r="600" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
@@ -5308,7 +5352,7 @@
       <c r="F600" s="5"/>
       <c r="G600" s="6"/>
     </row>
-    <row r="601" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
@@ -5316,7 +5360,7 @@
       <c r="F601" s="5"/>
       <c r="G601" s="6"/>
     </row>
-    <row r="602" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
@@ -5324,7 +5368,7 @@
       <c r="F602" s="5"/>
       <c r="G602" s="6"/>
     </row>
-    <row r="603" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
@@ -5332,7 +5376,7 @@
       <c r="F603" s="5"/>
       <c r="G603" s="6"/>
     </row>
-    <row r="604" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
@@ -5340,7 +5384,7 @@
       <c r="F604" s="5"/>
       <c r="G604" s="6"/>
     </row>
-    <row r="605" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
@@ -5348,7 +5392,7 @@
       <c r="F605" s="5"/>
       <c r="G605" s="6"/>
     </row>
-    <row r="606" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
@@ -5356,7 +5400,7 @@
       <c r="F606" s="5"/>
       <c r="G606" s="6"/>
     </row>
-    <row r="607" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
@@ -5364,7 +5408,7 @@
       <c r="F607" s="5"/>
       <c r="G607" s="6"/>
     </row>
-    <row r="608" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
@@ -5372,7 +5416,7 @@
       <c r="F608" s="5"/>
       <c r="G608" s="6"/>
     </row>
-    <row r="609" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
@@ -5380,7 +5424,7 @@
       <c r="F609" s="5"/>
       <c r="G609" s="6"/>
     </row>
-    <row r="610" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
@@ -5388,7 +5432,7 @@
       <c r="F610" s="5"/>
       <c r="G610" s="6"/>
     </row>
-    <row r="611" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
@@ -5396,7 +5440,7 @@
       <c r="F611" s="5"/>
       <c r="G611" s="6"/>
     </row>
-    <row r="612" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
@@ -5404,7 +5448,7 @@
       <c r="F612" s="5"/>
       <c r="G612" s="6"/>
     </row>
-    <row r="613" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
@@ -5412,7 +5456,7 @@
       <c r="F613" s="5"/>
       <c r="G613" s="6"/>
     </row>
-    <row r="614" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
@@ -5420,7 +5464,7 @@
       <c r="F614" s="5"/>
       <c r="G614" s="6"/>
     </row>
-    <row r="615" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
@@ -5428,7 +5472,7 @@
       <c r="F615" s="5"/>
       <c r="G615" s="6"/>
     </row>
-    <row r="616" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
@@ -5436,7 +5480,7 @@
       <c r="F616" s="5"/>
       <c r="G616" s="6"/>
     </row>
-    <row r="617" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
@@ -5444,7 +5488,7 @@
       <c r="F617" s="5"/>
       <c r="G617" s="6"/>
     </row>
-    <row r="618" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
@@ -5452,7 +5496,7 @@
       <c r="F618" s="5"/>
       <c r="G618" s="6"/>
     </row>
-    <row r="619" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
@@ -5460,7 +5504,7 @@
       <c r="F619" s="5"/>
       <c r="G619" s="6"/>
     </row>
-    <row r="620" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
@@ -5468,7 +5512,7 @@
       <c r="F620" s="5"/>
       <c r="G620" s="6"/>
     </row>
-    <row r="621" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
@@ -5476,7 +5520,7 @@
       <c r="F621" s="5"/>
       <c r="G621" s="6"/>
     </row>
-    <row r="622" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
@@ -5484,7 +5528,7 @@
       <c r="F622" s="5"/>
       <c r="G622" s="6"/>
     </row>
-    <row r="623" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
@@ -5492,7 +5536,7 @@
       <c r="F623" s="5"/>
       <c r="G623" s="6"/>
     </row>
-    <row r="624" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
@@ -5500,7 +5544,7 @@
       <c r="F624" s="5"/>
       <c r="G624" s="6"/>
     </row>
-    <row r="625" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
@@ -5508,7 +5552,7 @@
       <c r="F625" s="5"/>
       <c r="G625" s="6"/>
     </row>
-    <row r="626" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
@@ -5516,7 +5560,7 @@
       <c r="F626" s="5"/>
       <c r="G626" s="6"/>
     </row>
-    <row r="627" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
@@ -5524,7 +5568,7 @@
       <c r="F627" s="5"/>
       <c r="G627" s="6"/>
     </row>
-    <row r="628" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
@@ -5532,7 +5576,7 @@
       <c r="F628" s="5"/>
       <c r="G628" s="6"/>
     </row>
-    <row r="629" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
@@ -5540,7 +5584,7 @@
       <c r="F629" s="5"/>
       <c r="G629" s="6"/>
     </row>
-    <row r="630" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
@@ -5548,7 +5592,7 @@
       <c r="F630" s="5"/>
       <c r="G630" s="6"/>
     </row>
-    <row r="631" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
@@ -5556,7 +5600,7 @@
       <c r="F631" s="5"/>
       <c r="G631" s="6"/>
     </row>
-    <row r="632" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
@@ -5564,7 +5608,7 @@
       <c r="F632" s="5"/>
       <c r="G632" s="6"/>
     </row>
-    <row r="633" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
@@ -5572,7 +5616,7 @@
       <c r="F633" s="5"/>
       <c r="G633" s="6"/>
     </row>
-    <row r="634" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
@@ -5580,7 +5624,7 @@
       <c r="F634" s="5"/>
       <c r="G634" s="6"/>
     </row>
-    <row r="635" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
@@ -5588,7 +5632,7 @@
       <c r="F635" s="5"/>
       <c r="G635" s="6"/>
     </row>
-    <row r="636" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
@@ -5596,7 +5640,7 @@
       <c r="F636" s="5"/>
       <c r="G636" s="6"/>
     </row>
-    <row r="637" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
@@ -5604,7 +5648,7 @@
       <c r="F637" s="5"/>
       <c r="G637" s="6"/>
     </row>
-    <row r="638" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
@@ -5612,7 +5656,7 @@
       <c r="F638" s="5"/>
       <c r="G638" s="6"/>
     </row>
-    <row r="639" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
@@ -5620,7 +5664,7 @@
       <c r="F639" s="5"/>
       <c r="G639" s="6"/>
     </row>
-    <row r="640" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
@@ -5628,7 +5672,7 @@
       <c r="F640" s="5"/>
       <c r="G640" s="6"/>
     </row>
-    <row r="641" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
@@ -5636,7 +5680,7 @@
       <c r="F641" s="5"/>
       <c r="G641" s="6"/>
     </row>
-    <row r="642" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
@@ -5644,7 +5688,7 @@
       <c r="F642" s="5"/>
       <c r="G642" s="6"/>
     </row>
-    <row r="643" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
@@ -5652,7 +5696,7 @@
       <c r="F643" s="5"/>
       <c r="G643" s="6"/>
     </row>
-    <row r="644" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
@@ -5660,7 +5704,7 @@
       <c r="F644" s="5"/>
       <c r="G644" s="6"/>
     </row>
-    <row r="645" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
@@ -5668,7 +5712,7 @@
       <c r="F645" s="5"/>
       <c r="G645" s="6"/>
     </row>
-    <row r="646" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
@@ -5676,7 +5720,7 @@
       <c r="F646" s="5"/>
       <c r="G646" s="6"/>
     </row>
-    <row r="647" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
@@ -5684,7 +5728,7 @@
       <c r="F647" s="5"/>
       <c r="G647" s="6"/>
     </row>
-    <row r="648" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
@@ -5692,7 +5736,7 @@
       <c r="F648" s="5"/>
       <c r="G648" s="6"/>
     </row>
-    <row r="649" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
@@ -5700,7 +5744,7 @@
       <c r="F649" s="5"/>
       <c r="G649" s="6"/>
     </row>
-    <row r="650" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
@@ -5708,7 +5752,7 @@
       <c r="F650" s="5"/>
       <c r="G650" s="6"/>
     </row>
-    <row r="651" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
@@ -5716,7 +5760,7 @@
       <c r="F651" s="5"/>
       <c r="G651" s="6"/>
     </row>
-    <row r="652" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
@@ -5724,7 +5768,7 @@
       <c r="F652" s="5"/>
       <c r="G652" s="6"/>
     </row>
-    <row r="653" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
@@ -5732,7 +5776,7 @@
       <c r="F653" s="5"/>
       <c r="G653" s="6"/>
     </row>
-    <row r="654" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
@@ -5740,7 +5784,7 @@
       <c r="F654" s="5"/>
       <c r="G654" s="6"/>
     </row>
-    <row r="655" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
@@ -5748,7 +5792,7 @@
       <c r="F655" s="5"/>
       <c r="G655" s="6"/>
     </row>
-    <row r="656" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
@@ -5756,7 +5800,7 @@
       <c r="F656" s="5"/>
       <c r="G656" s="6"/>
     </row>
-    <row r="657" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
@@ -5764,7 +5808,7 @@
       <c r="F657" s="5"/>
       <c r="G657" s="6"/>
     </row>
-    <row r="658" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
@@ -5772,7 +5816,7 @@
       <c r="F658" s="5"/>
       <c r="G658" s="6"/>
     </row>
-    <row r="659" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
@@ -5780,7 +5824,7 @@
       <c r="F659" s="5"/>
       <c r="G659" s="6"/>
     </row>
-    <row r="660" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
@@ -5788,7 +5832,7 @@
       <c r="F660" s="5"/>
       <c r="G660" s="6"/>
     </row>
-    <row r="661" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
@@ -5796,7 +5840,7 @@
       <c r="F661" s="5"/>
       <c r="G661" s="6"/>
     </row>
-    <row r="662" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
@@ -5804,7 +5848,7 @@
       <c r="F662" s="5"/>
       <c r="G662" s="6"/>
     </row>
-    <row r="663" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
@@ -5812,7 +5856,7 @@
       <c r="F663" s="5"/>
       <c r="G663" s="6"/>
     </row>
-    <row r="664" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
@@ -5820,7 +5864,7 @@
       <c r="F664" s="5"/>
       <c r="G664" s="6"/>
     </row>
-    <row r="665" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
@@ -5828,7 +5872,7 @@
       <c r="F665" s="5"/>
       <c r="G665" s="6"/>
     </row>
-    <row r="666" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
@@ -5836,7 +5880,7 @@
       <c r="F666" s="5"/>
       <c r="G666" s="6"/>
     </row>
-    <row r="667" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
@@ -5844,7 +5888,7 @@
       <c r="F667" s="5"/>
       <c r="G667" s="6"/>
     </row>
-    <row r="668" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
@@ -5852,7 +5896,7 @@
       <c r="F668" s="5"/>
       <c r="G668" s="6"/>
     </row>
-    <row r="669" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
@@ -5860,7 +5904,7 @@
       <c r="F669" s="5"/>
       <c r="G669" s="6"/>
     </row>
-    <row r="670" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
@@ -5868,7 +5912,7 @@
       <c r="F670" s="5"/>
       <c r="G670" s="6"/>
     </row>
-    <row r="671" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
@@ -5876,7 +5920,7 @@
       <c r="F671" s="5"/>
       <c r="G671" s="6"/>
     </row>
-    <row r="672" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
@@ -5884,7 +5928,7 @@
       <c r="F672" s="5"/>
       <c r="G672" s="6"/>
     </row>
-    <row r="673" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
@@ -5892,7 +5936,7 @@
       <c r="F673" s="5"/>
       <c r="G673" s="6"/>
     </row>
-    <row r="674" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
@@ -5900,7 +5944,7 @@
       <c r="F674" s="5"/>
       <c r="G674" s="6"/>
     </row>
-    <row r="675" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
@@ -5908,7 +5952,7 @@
       <c r="F675" s="5"/>
       <c r="G675" s="6"/>
     </row>
-    <row r="676" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
@@ -5916,7 +5960,7 @@
       <c r="F676" s="5"/>
       <c r="G676" s="6"/>
     </row>
-    <row r="677" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
@@ -5924,7 +5968,7 @@
       <c r="F677" s="5"/>
       <c r="G677" s="6"/>
     </row>
-    <row r="678" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
@@ -5932,7 +5976,7 @@
       <c r="F678" s="5"/>
       <c r="G678" s="6"/>
     </row>
-    <row r="679" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
@@ -5940,7 +5984,7 @@
       <c r="F679" s="5"/>
       <c r="G679" s="6"/>
     </row>
-    <row r="680" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
@@ -5948,7 +5992,7 @@
       <c r="F680" s="5"/>
       <c r="G680" s="6"/>
     </row>
-    <row r="681" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
@@ -5956,7 +6000,7 @@
       <c r="F681" s="5"/>
       <c r="G681" s="6"/>
     </row>
-    <row r="682" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
@@ -5964,7 +6008,7 @@
       <c r="F682" s="5"/>
       <c r="G682" s="6"/>
     </row>
-    <row r="683" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
@@ -5972,7 +6016,7 @@
       <c r="F683" s="5"/>
       <c r="G683" s="6"/>
     </row>
-    <row r="684" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
@@ -5980,7 +6024,7 @@
       <c r="F684" s="5"/>
       <c r="G684" s="6"/>
     </row>
-    <row r="685" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
@@ -5988,7 +6032,7 @@
       <c r="F685" s="5"/>
       <c r="G685" s="6"/>
     </row>
-    <row r="686" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
@@ -5996,7 +6040,7 @@
       <c r="F686" s="5"/>
       <c r="G686" s="6"/>
     </row>
-    <row r="687" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
@@ -6004,7 +6048,7 @@
       <c r="F687" s="5"/>
       <c r="G687" s="6"/>
     </row>
-    <row r="688" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
@@ -6012,7 +6056,7 @@
       <c r="F688" s="5"/>
       <c r="G688" s="6"/>
     </row>
-    <row r="689" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
@@ -6020,7 +6064,7 @@
       <c r="F689" s="5"/>
       <c r="G689" s="6"/>
     </row>
-    <row r="690" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
@@ -6028,7 +6072,7 @@
       <c r="F690" s="5"/>
       <c r="G690" s="6"/>
     </row>
-    <row r="691" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
@@ -6036,7 +6080,7 @@
       <c r="F691" s="5"/>
       <c r="G691" s="6"/>
     </row>
-    <row r="692" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
@@ -6044,7 +6088,7 @@
       <c r="F692" s="5"/>
       <c r="G692" s="6"/>
     </row>
-    <row r="693" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
@@ -6052,7 +6096,7 @@
       <c r="F693" s="5"/>
       <c r="G693" s="6"/>
     </row>
-    <row r="694" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
@@ -6060,7 +6104,7 @@
       <c r="F694" s="5"/>
       <c r="G694" s="6"/>
     </row>
-    <row r="695" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
@@ -6068,7 +6112,7 @@
       <c r="F695" s="5"/>
       <c r="G695" s="6"/>
     </row>
-    <row r="696" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
@@ -6076,7 +6120,7 @@
       <c r="F696" s="5"/>
       <c r="G696" s="6"/>
     </row>
-    <row r="697" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
@@ -6084,7 +6128,7 @@
       <c r="F697" s="5"/>
       <c r="G697" s="6"/>
     </row>
-    <row r="698" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
@@ -6092,7 +6136,7 @@
       <c r="F698" s="5"/>
       <c r="G698" s="6"/>
     </row>
-    <row r="699" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
@@ -6100,7 +6144,7 @@
       <c r="F699" s="5"/>
       <c r="G699" s="6"/>
     </row>
-    <row r="700" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
@@ -6108,7 +6152,7 @@
       <c r="F700" s="5"/>
       <c r="G700" s="6"/>
     </row>
-    <row r="701" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
@@ -6116,7 +6160,7 @@
       <c r="F701" s="5"/>
       <c r="G701" s="6"/>
     </row>
-    <row r="702" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
@@ -6124,7 +6168,7 @@
       <c r="F702" s="5"/>
       <c r="G702" s="6"/>
     </row>
-    <row r="703" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
@@ -6132,7 +6176,7 @@
       <c r="F703" s="5"/>
       <c r="G703" s="6"/>
     </row>
-    <row r="704" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
@@ -6140,7 +6184,7 @@
       <c r="F704" s="5"/>
       <c r="G704" s="6"/>
     </row>
-    <row r="705" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
@@ -6148,7 +6192,7 @@
       <c r="F705" s="5"/>
       <c r="G705" s="6"/>
     </row>
-    <row r="706" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
@@ -6156,7 +6200,7 @@
       <c r="F706" s="5"/>
       <c r="G706" s="6"/>
     </row>
-    <row r="707" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
@@ -6164,7 +6208,7 @@
       <c r="F707" s="5"/>
       <c r="G707" s="6"/>
     </row>
-    <row r="708" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
@@ -6172,7 +6216,7 @@
       <c r="F708" s="5"/>
       <c r="G708" s="6"/>
     </row>
-    <row r="709" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
@@ -6180,7 +6224,7 @@
       <c r="F709" s="5"/>
       <c r="G709" s="6"/>
     </row>
-    <row r="710" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
@@ -6188,7 +6232,7 @@
       <c r="F710" s="5"/>
       <c r="G710" s="6"/>
     </row>
-    <row r="711" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
@@ -6196,7 +6240,7 @@
       <c r="F711" s="5"/>
       <c r="G711" s="6"/>
     </row>
-    <row r="712" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
@@ -6204,7 +6248,7 @@
       <c r="F712" s="5"/>
       <c r="G712" s="6"/>
     </row>
-    <row r="713" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
@@ -6212,7 +6256,7 @@
       <c r="F713" s="5"/>
       <c r="G713" s="6"/>
     </row>
-    <row r="714" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
@@ -6220,7 +6264,7 @@
       <c r="F714" s="5"/>
       <c r="G714" s="6"/>
     </row>
-    <row r="715" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
@@ -6228,7 +6272,7 @@
       <c r="F715" s="5"/>
       <c r="G715" s="6"/>
     </row>
-    <row r="716" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
@@ -6236,7 +6280,7 @@
       <c r="F716" s="5"/>
       <c r="G716" s="6"/>
     </row>
-    <row r="717" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
@@ -6244,7 +6288,7 @@
       <c r="F717" s="5"/>
       <c r="G717" s="6"/>
     </row>
-    <row r="718" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
@@ -6252,7 +6296,7 @@
       <c r="F718" s="5"/>
       <c r="G718" s="6"/>
     </row>
-    <row r="719" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
@@ -6260,7 +6304,7 @@
       <c r="F719" s="5"/>
       <c r="G719" s="6"/>
     </row>
-    <row r="720" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
@@ -6268,7 +6312,7 @@
       <c r="F720" s="5"/>
       <c r="G720" s="6"/>
     </row>
-    <row r="721" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
@@ -6276,7 +6320,7 @@
       <c r="F721" s="5"/>
       <c r="G721" s="6"/>
     </row>
-    <row r="722" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
@@ -6284,7 +6328,7 @@
       <c r="F722" s="5"/>
       <c r="G722" s="6"/>
     </row>
-    <row r="723" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
@@ -6292,7 +6336,7 @@
       <c r="F723" s="5"/>
       <c r="G723" s="6"/>
     </row>
-    <row r="724" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
@@ -6300,7 +6344,7 @@
       <c r="F724" s="5"/>
       <c r="G724" s="6"/>
     </row>
-    <row r="725" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
@@ -6308,7 +6352,7 @@
       <c r="F725" s="5"/>
       <c r="G725" s="6"/>
     </row>
-    <row r="726" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
@@ -6316,7 +6360,7 @@
       <c r="F726" s="5"/>
       <c r="G726" s="6"/>
     </row>
-    <row r="727" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
@@ -6324,7 +6368,7 @@
       <c r="F727" s="5"/>
       <c r="G727" s="6"/>
     </row>
-    <row r="728" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
@@ -6332,7 +6376,7 @@
       <c r="F728" s="5"/>
       <c r="G728" s="6"/>
     </row>
-    <row r="729" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
@@ -6340,7 +6384,7 @@
       <c r="F729" s="5"/>
       <c r="G729" s="6"/>
     </row>
-    <row r="730" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
@@ -6348,7 +6392,7 @@
       <c r="F730" s="5"/>
       <c r="G730" s="6"/>
     </row>
-    <row r="731" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
@@ -6356,7 +6400,7 @@
       <c r="F731" s="5"/>
       <c r="G731" s="6"/>
     </row>
-    <row r="732" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
@@ -6364,7 +6408,7 @@
       <c r="F732" s="5"/>
       <c r="G732" s="6"/>
     </row>
-    <row r="733" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
@@ -6372,7 +6416,7 @@
       <c r="F733" s="5"/>
       <c r="G733" s="6"/>
     </row>
-    <row r="734" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
@@ -6380,7 +6424,7 @@
       <c r="F734" s="5"/>
       <c r="G734" s="6"/>
     </row>
-    <row r="735" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
@@ -6388,7 +6432,7 @@
       <c r="F735" s="5"/>
       <c r="G735" s="6"/>
     </row>
-    <row r="736" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
@@ -6396,7 +6440,7 @@
       <c r="F736" s="5"/>
       <c r="G736" s="6"/>
     </row>
-    <row r="737" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
@@ -6404,7 +6448,7 @@
       <c r="F737" s="5"/>
       <c r="G737" s="6"/>
     </row>
-    <row r="738" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
@@ -6412,7 +6456,7 @@
       <c r="F738" s="5"/>
       <c r="G738" s="6"/>
     </row>
-    <row r="739" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
@@ -6420,7 +6464,7 @@
       <c r="F739" s="5"/>
       <c r="G739" s="6"/>
     </row>
-    <row r="740" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
@@ -6428,7 +6472,7 @@
       <c r="F740" s="5"/>
       <c r="G740" s="6"/>
     </row>
-    <row r="741" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
@@ -6436,7 +6480,7 @@
       <c r="F741" s="5"/>
       <c r="G741" s="6"/>
     </row>
-    <row r="742" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
@@ -6444,7 +6488,7 @@
       <c r="F742" s="5"/>
       <c r="G742" s="6"/>
     </row>
-    <row r="743" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
@@ -6452,7 +6496,7 @@
       <c r="F743" s="5"/>
       <c r="G743" s="6"/>
     </row>
-    <row r="744" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
@@ -6460,7 +6504,7 @@
       <c r="F744" s="5"/>
       <c r="G744" s="6"/>
     </row>
-    <row r="745" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
@@ -6468,7 +6512,7 @@
       <c r="F745" s="5"/>
       <c r="G745" s="6"/>
     </row>
-    <row r="746" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
@@ -6476,7 +6520,7 @@
       <c r="F746" s="5"/>
       <c r="G746" s="6"/>
     </row>
-    <row r="747" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
@@ -6484,7 +6528,7 @@
       <c r="F747" s="5"/>
       <c r="G747" s="6"/>
     </row>
-    <row r="748" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
@@ -6492,7 +6536,7 @@
       <c r="F748" s="5"/>
       <c r="G748" s="6"/>
     </row>
-    <row r="749" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
@@ -6500,7 +6544,7 @@
       <c r="F749" s="5"/>
       <c r="G749" s="6"/>
     </row>
-    <row r="750" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
@@ -6508,7 +6552,7 @@
       <c r="F750" s="5"/>
       <c r="G750" s="6"/>
     </row>
-    <row r="751" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
@@ -6516,7 +6560,7 @@
       <c r="F751" s="5"/>
       <c r="G751" s="6"/>
     </row>
-    <row r="752" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
@@ -6524,7 +6568,7 @@
       <c r="F752" s="5"/>
       <c r="G752" s="6"/>
     </row>
-    <row r="753" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
@@ -6532,7 +6576,7 @@
       <c r="F753" s="5"/>
       <c r="G753" s="6"/>
     </row>
-    <row r="754" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
@@ -6540,7 +6584,7 @@
       <c r="F754" s="5"/>
       <c r="G754" s="6"/>
     </row>
-    <row r="755" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
@@ -6548,7 +6592,7 @@
       <c r="F755" s="5"/>
       <c r="G755" s="6"/>
     </row>
-    <row r="756" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
@@ -6556,7 +6600,7 @@
       <c r="F756" s="5"/>
       <c r="G756" s="6"/>
     </row>
-    <row r="757" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
@@ -6564,7 +6608,7 @@
       <c r="F757" s="5"/>
       <c r="G757" s="6"/>
     </row>
-    <row r="758" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
@@ -6572,7 +6616,7 @@
       <c r="F758" s="5"/>
       <c r="G758" s="6"/>
     </row>
-    <row r="759" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
@@ -6580,7 +6624,7 @@
       <c r="F759" s="5"/>
       <c r="G759" s="6"/>
     </row>
-    <row r="760" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
@@ -6588,7 +6632,7 @@
       <c r="F760" s="5"/>
       <c r="G760" s="6"/>
     </row>
-    <row r="761" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
@@ -6596,7 +6640,7 @@
       <c r="F761" s="5"/>
       <c r="G761" s="6"/>
     </row>
-    <row r="762" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
@@ -6604,7 +6648,7 @@
       <c r="F762" s="5"/>
       <c r="G762" s="6"/>
     </row>
-    <row r="763" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
@@ -6612,7 +6656,7 @@
       <c r="F763" s="5"/>
       <c r="G763" s="6"/>
     </row>
-    <row r="764" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
@@ -6620,7 +6664,7 @@
       <c r="F764" s="5"/>
       <c r="G764" s="6"/>
     </row>
-    <row r="765" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
@@ -6628,7 +6672,7 @@
       <c r="F765" s="5"/>
       <c r="G765" s="6"/>
     </row>
-    <row r="766" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
@@ -6636,7 +6680,7 @@
       <c r="F766" s="5"/>
       <c r="G766" s="6"/>
     </row>
-    <row r="767" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
@@ -6644,7 +6688,7 @@
       <c r="F767" s="5"/>
       <c r="G767" s="6"/>
     </row>
-    <row r="768" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
@@ -6652,7 +6696,7 @@
       <c r="F768" s="5"/>
       <c r="G768" s="6"/>
     </row>
-    <row r="769" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
@@ -6660,7 +6704,7 @@
       <c r="F769" s="5"/>
       <c r="G769" s="6"/>
     </row>
-    <row r="770" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
@@ -6668,7 +6712,7 @@
       <c r="F770" s="5"/>
       <c r="G770" s="6"/>
     </row>
-    <row r="771" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
@@ -6676,7 +6720,7 @@
       <c r="F771" s="5"/>
       <c r="G771" s="6"/>
     </row>
-    <row r="772" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
@@ -6684,7 +6728,7 @@
       <c r="F772" s="5"/>
       <c r="G772" s="6"/>
     </row>
-    <row r="773" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
@@ -6692,7 +6736,7 @@
       <c r="F773" s="5"/>
       <c r="G773" s="6"/>
     </row>
-    <row r="774" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
@@ -6700,7 +6744,7 @@
       <c r="F774" s="5"/>
       <c r="G774" s="6"/>
     </row>
-    <row r="775" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
@@ -6708,7 +6752,7 @@
       <c r="F775" s="5"/>
       <c r="G775" s="6"/>
     </row>
-    <row r="776" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
@@ -6716,7 +6760,7 @@
       <c r="F776" s="5"/>
       <c r="G776" s="6"/>
     </row>
-    <row r="777" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
@@ -6724,7 +6768,7 @@
       <c r="F777" s="5"/>
       <c r="G777" s="6"/>
     </row>
-    <row r="778" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
@@ -6732,7 +6776,7 @@
       <c r="F778" s="5"/>
       <c r="G778" s="6"/>
     </row>
-    <row r="779" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
@@ -6740,7 +6784,7 @@
       <c r="F779" s="5"/>
       <c r="G779" s="6"/>
     </row>
-    <row r="780" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
@@ -6748,7 +6792,7 @@
       <c r="F780" s="5"/>
       <c r="G780" s="6"/>
     </row>
-    <row r="781" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
@@ -6756,7 +6800,7 @@
       <c r="F781" s="5"/>
       <c r="G781" s="6"/>
     </row>
-    <row r="782" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
@@ -6764,7 +6808,7 @@
       <c r="F782" s="5"/>
       <c r="G782" s="6"/>
     </row>
-    <row r="783" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
@@ -6772,7 +6816,7 @@
       <c r="F783" s="5"/>
       <c r="G783" s="6"/>
     </row>
-    <row r="784" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
@@ -6780,7 +6824,7 @@
       <c r="F784" s="5"/>
       <c r="G784" s="6"/>
     </row>
-    <row r="785" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
@@ -6788,7 +6832,7 @@
       <c r="F785" s="5"/>
       <c r="G785" s="6"/>
     </row>
-    <row r="786" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
@@ -6796,7 +6840,7 @@
       <c r="F786" s="5"/>
       <c r="G786" s="6"/>
     </row>
-    <row r="787" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
@@ -6804,7 +6848,7 @@
       <c r="F787" s="5"/>
       <c r="G787" s="6"/>
     </row>
-    <row r="788" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
@@ -6812,7 +6856,7 @@
       <c r="F788" s="5"/>
       <c r="G788" s="6"/>
     </row>
-    <row r="789" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
@@ -6820,7 +6864,7 @@
       <c r="F789" s="5"/>
       <c r="G789" s="6"/>
     </row>
-    <row r="790" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
@@ -6828,7 +6872,7 @@
       <c r="F790" s="5"/>
       <c r="G790" s="6"/>
     </row>
-    <row r="791" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
@@ -6836,7 +6880,7 @@
       <c r="F791" s="5"/>
       <c r="G791" s="6"/>
     </row>
-    <row r="792" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
@@ -6844,7 +6888,7 @@
       <c r="F792" s="5"/>
       <c r="G792" s="6"/>
     </row>
-    <row r="793" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
@@ -6852,7 +6896,7 @@
       <c r="F793" s="5"/>
       <c r="G793" s="6"/>
     </row>
-    <row r="794" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
@@ -6860,7 +6904,7 @@
       <c r="F794" s="5"/>
       <c r="G794" s="6"/>
     </row>
-    <row r="795" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
@@ -6868,7 +6912,7 @@
       <c r="F795" s="5"/>
       <c r="G795" s="6"/>
     </row>
-    <row r="796" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
@@ -6876,7 +6920,7 @@
       <c r="F796" s="5"/>
       <c r="G796" s="6"/>
     </row>
-    <row r="797" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
@@ -6884,7 +6928,7 @@
       <c r="F797" s="5"/>
       <c r="G797" s="6"/>
     </row>
-    <row r="798" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
@@ -6892,7 +6936,7 @@
       <c r="F798" s="5"/>
       <c r="G798" s="6"/>
     </row>
-    <row r="799" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
@@ -6900,7 +6944,7 @@
       <c r="F799" s="5"/>
       <c r="G799" s="6"/>
     </row>
-    <row r="800" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
@@ -6908,7 +6952,7 @@
       <c r="F800" s="5"/>
       <c r="G800" s="6"/>
     </row>
-    <row r="801" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
@@ -6916,7 +6960,7 @@
       <c r="F801" s="5"/>
       <c r="G801" s="6"/>
     </row>
-    <row r="802" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
@@ -6924,7 +6968,7 @@
       <c r="F802" s="5"/>
       <c r="G802" s="6"/>
     </row>
-    <row r="803" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
@@ -6932,7 +6976,7 @@
       <c r="F803" s="5"/>
       <c r="G803" s="6"/>
     </row>
-    <row r="804" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
@@ -6940,7 +6984,7 @@
       <c r="F804" s="5"/>
       <c r="G804" s="6"/>
     </row>
-    <row r="805" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
@@ -6948,7 +6992,7 @@
       <c r="F805" s="5"/>
       <c r="G805" s="6"/>
     </row>
-    <row r="806" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
@@ -6956,7 +7000,7 @@
       <c r="F806" s="5"/>
       <c r="G806" s="6"/>
     </row>
-    <row r="807" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
@@ -6964,7 +7008,7 @@
       <c r="F807" s="5"/>
       <c r="G807" s="6"/>
     </row>
-    <row r="808" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
@@ -6972,7 +7016,7 @@
       <c r="F808" s="5"/>
       <c r="G808" s="6"/>
     </row>
-    <row r="809" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
@@ -6980,7 +7024,7 @@
       <c r="F809" s="5"/>
       <c r="G809" s="6"/>
     </row>
-    <row r="810" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
@@ -6988,7 +7032,7 @@
       <c r="F810" s="5"/>
       <c r="G810" s="6"/>
     </row>
-    <row r="811" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
@@ -6996,7 +7040,7 @@
       <c r="F811" s="5"/>
       <c r="G811" s="6"/>
     </row>
-    <row r="812" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
@@ -7004,7 +7048,7 @@
       <c r="F812" s="5"/>
       <c r="G812" s="6"/>
     </row>
-    <row r="813" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
@@ -7012,7 +7056,7 @@
       <c r="F813" s="5"/>
       <c r="G813" s="6"/>
     </row>
-    <row r="814" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
@@ -7020,7 +7064,7 @@
       <c r="F814" s="5"/>
       <c r="G814" s="6"/>
     </row>
-    <row r="815" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
@@ -7028,7 +7072,7 @@
       <c r="F815" s="5"/>
       <c r="G815" s="6"/>
     </row>
-    <row r="816" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
@@ -7036,7 +7080,7 @@
       <c r="F816" s="5"/>
       <c r="G816" s="6"/>
     </row>
-    <row r="817" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
@@ -7044,7 +7088,7 @@
       <c r="F817" s="5"/>
       <c r="G817" s="6"/>
     </row>
-    <row r="818" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
@@ -7052,7 +7096,7 @@
       <c r="F818" s="5"/>
       <c r="G818" s="6"/>
     </row>
-    <row r="819" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
@@ -7060,7 +7104,7 @@
       <c r="F819" s="5"/>
       <c r="G819" s="6"/>
     </row>
-    <row r="820" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
@@ -7068,7 +7112,7 @@
       <c r="F820" s="5"/>
       <c r="G820" s="6"/>
     </row>
-    <row r="821" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
@@ -7076,7 +7120,7 @@
       <c r="F821" s="5"/>
       <c r="G821" s="6"/>
     </row>
-    <row r="822" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
@@ -7084,7 +7128,7 @@
       <c r="F822" s="5"/>
       <c r="G822" s="6"/>
     </row>
-    <row r="823" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
@@ -7092,7 +7136,7 @@
       <c r="F823" s="5"/>
       <c r="G823" s="6"/>
     </row>
-    <row r="824" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
@@ -7100,7 +7144,7 @@
       <c r="F824" s="5"/>
       <c r="G824" s="6"/>
     </row>
-    <row r="825" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
@@ -7108,7 +7152,7 @@
       <c r="F825" s="5"/>
       <c r="G825" s="6"/>
     </row>
-    <row r="826" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
@@ -7116,7 +7160,7 @@
       <c r="F826" s="5"/>
       <c r="G826" s="6"/>
     </row>
-    <row r="827" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
@@ -7124,7 +7168,7 @@
       <c r="F827" s="5"/>
       <c r="G827" s="6"/>
     </row>
-    <row r="828" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
@@ -7132,7 +7176,7 @@
       <c r="F828" s="5"/>
       <c r="G828" s="6"/>
     </row>
-    <row r="829" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
@@ -7140,7 +7184,7 @@
       <c r="F829" s="5"/>
       <c r="G829" s="6"/>
     </row>
-    <row r="830" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
@@ -7148,7 +7192,7 @@
       <c r="F830" s="5"/>
       <c r="G830" s="6"/>
     </row>
-    <row r="831" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
@@ -7156,7 +7200,7 @@
       <c r="F831" s="5"/>
       <c r="G831" s="6"/>
     </row>
-    <row r="832" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
@@ -7164,7 +7208,7 @@
       <c r="F832" s="5"/>
       <c r="G832" s="6"/>
     </row>
-    <row r="833" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
@@ -7172,7 +7216,7 @@
       <c r="F833" s="5"/>
       <c r="G833" s="6"/>
     </row>
-    <row r="834" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
@@ -7180,7 +7224,7 @@
       <c r="F834" s="5"/>
       <c r="G834" s="6"/>
     </row>
-    <row r="835" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
@@ -7188,7 +7232,7 @@
       <c r="F835" s="5"/>
       <c r="G835" s="6"/>
     </row>
-    <row r="836" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
@@ -7196,7 +7240,7 @@
       <c r="F836" s="5"/>
       <c r="G836" s="6"/>
     </row>
-    <row r="837" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
@@ -7204,7 +7248,7 @@
       <c r="F837" s="5"/>
       <c r="G837" s="6"/>
     </row>
-    <row r="838" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
@@ -7212,7 +7256,7 @@
       <c r="F838" s="5"/>
       <c r="G838" s="6"/>
     </row>
-    <row r="839" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
@@ -7220,7 +7264,7 @@
       <c r="F839" s="5"/>
       <c r="G839" s="6"/>
     </row>
-    <row r="840" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
@@ -7228,7 +7272,7 @@
       <c r="F840" s="5"/>
       <c r="G840" s="6"/>
     </row>
-    <row r="841" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
@@ -7236,7 +7280,7 @@
       <c r="F841" s="5"/>
       <c r="G841" s="6"/>
     </row>
-    <row r="842" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
@@ -7244,7 +7288,7 @@
       <c r="F842" s="5"/>
       <c r="G842" s="6"/>
     </row>
-    <row r="843" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
@@ -7252,7 +7296,7 @@
       <c r="F843" s="5"/>
       <c r="G843" s="6"/>
     </row>
-    <row r="844" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
@@ -7260,7 +7304,7 @@
       <c r="F844" s="5"/>
       <c r="G844" s="6"/>
     </row>
-    <row r="845" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
@@ -7268,7 +7312,7 @@
       <c r="F845" s="5"/>
       <c r="G845" s="6"/>
     </row>
-    <row r="846" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
@@ -7276,7 +7320,7 @@
       <c r="F846" s="5"/>
       <c r="G846" s="6"/>
     </row>
-    <row r="847" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
@@ -7284,7 +7328,7 @@
       <c r="F847" s="5"/>
       <c r="G847" s="6"/>
     </row>
-    <row r="848" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
@@ -7292,7 +7336,7 @@
       <c r="F848" s="5"/>
       <c r="G848" s="6"/>
     </row>
-    <row r="849" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
@@ -7300,7 +7344,7 @@
       <c r="F849" s="5"/>
       <c r="G849" s="6"/>
     </row>
-    <row r="850" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
@@ -7308,7 +7352,7 @@
       <c r="F850" s="5"/>
       <c r="G850" s="6"/>
     </row>
-    <row r="851" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
@@ -7316,7 +7360,7 @@
       <c r="F851" s="5"/>
       <c r="G851" s="6"/>
     </row>
-    <row r="852" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
@@ -7324,7 +7368,7 @@
       <c r="F852" s="5"/>
       <c r="G852" s="6"/>
     </row>
-    <row r="853" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
@@ -7332,7 +7376,7 @@
       <c r="F853" s="5"/>
       <c r="G853" s="6"/>
     </row>
-    <row r="854" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
@@ -7340,7 +7384,7 @@
       <c r="F854" s="5"/>
       <c r="G854" s="6"/>
     </row>
-    <row r="855" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
@@ -7348,7 +7392,7 @@
       <c r="F855" s="5"/>
       <c r="G855" s="6"/>
     </row>
-    <row r="856" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
@@ -7356,7 +7400,7 @@
       <c r="F856" s="5"/>
       <c r="G856" s="6"/>
     </row>
-    <row r="857" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
@@ -7364,7 +7408,7 @@
       <c r="F857" s="5"/>
       <c r="G857" s="6"/>
     </row>
-    <row r="858" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
@@ -7372,7 +7416,7 @@
       <c r="F858" s="5"/>
       <c r="G858" s="6"/>
     </row>
-    <row r="859" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
@@ -7380,7 +7424,7 @@
       <c r="F859" s="5"/>
       <c r="G859" s="6"/>
     </row>
-    <row r="860" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
@@ -7388,7 +7432,7 @@
       <c r="F860" s="5"/>
       <c r="G860" s="6"/>
     </row>
-    <row r="861" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
@@ -7396,7 +7440,7 @@
       <c r="F861" s="5"/>
       <c r="G861" s="6"/>
     </row>
-    <row r="862" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
@@ -7404,7 +7448,7 @@
       <c r="F862" s="5"/>
       <c r="G862" s="6"/>
     </row>
-    <row r="863" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
@@ -7412,7 +7456,7 @@
       <c r="F863" s="5"/>
       <c r="G863" s="6"/>
     </row>
-    <row r="864" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
@@ -7420,7 +7464,7 @@
       <c r="F864" s="5"/>
       <c r="G864" s="6"/>
     </row>
-    <row r="865" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
@@ -7428,7 +7472,7 @@
       <c r="F865" s="5"/>
       <c r="G865" s="6"/>
     </row>
-    <row r="866" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
@@ -7436,7 +7480,7 @@
       <c r="F866" s="5"/>
       <c r="G866" s="6"/>
     </row>
-    <row r="867" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
@@ -7444,7 +7488,7 @@
       <c r="F867" s="5"/>
       <c r="G867" s="6"/>
     </row>
-    <row r="868" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
@@ -7452,7 +7496,7 @@
       <c r="F868" s="5"/>
       <c r="G868" s="6"/>
     </row>
-    <row r="869" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
@@ -7460,7 +7504,7 @@
       <c r="F869" s="5"/>
       <c r="G869" s="6"/>
     </row>
-    <row r="870" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
@@ -7468,7 +7512,7 @@
       <c r="F870" s="5"/>
       <c r="G870" s="6"/>
     </row>
-    <row r="871" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
@@ -7476,7 +7520,7 @@
       <c r="F871" s="5"/>
       <c r="G871" s="6"/>
     </row>
-    <row r="872" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
@@ -7484,7 +7528,7 @@
       <c r="F872" s="5"/>
       <c r="G872" s="6"/>
     </row>
-    <row r="873" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
@@ -7492,7 +7536,7 @@
       <c r="F873" s="5"/>
       <c r="G873" s="6"/>
     </row>
-    <row r="874" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
@@ -7500,7 +7544,7 @@
       <c r="F874" s="5"/>
       <c r="G874" s="6"/>
     </row>
-    <row r="875" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
@@ -7508,7 +7552,7 @@
       <c r="F875" s="5"/>
       <c r="G875" s="6"/>
     </row>
-    <row r="876" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
@@ -7516,7 +7560,7 @@
       <c r="F876" s="5"/>
       <c r="G876" s="6"/>
     </row>
-    <row r="877" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
@@ -7524,7 +7568,7 @@
       <c r="F877" s="5"/>
       <c r="G877" s="6"/>
     </row>
-    <row r="878" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
@@ -7532,7 +7576,7 @@
       <c r="F878" s="5"/>
       <c r="G878" s="6"/>
     </row>
-    <row r="879" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
@@ -7540,7 +7584,7 @@
       <c r="F879" s="5"/>
       <c r="G879" s="6"/>
     </row>
-    <row r="880" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
@@ -7548,7 +7592,7 @@
       <c r="F880" s="5"/>
       <c r="G880" s="6"/>
     </row>
-    <row r="881" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
@@ -7556,7 +7600,7 @@
       <c r="F881" s="5"/>
       <c r="G881" s="6"/>
     </row>
-    <row r="882" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
@@ -7564,7 +7608,7 @@
       <c r="F882" s="5"/>
       <c r="G882" s="6"/>
     </row>
-    <row r="883" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
@@ -7572,7 +7616,7 @@
       <c r="F883" s="5"/>
       <c r="G883" s="6"/>
     </row>
-    <row r="884" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
@@ -7580,7 +7624,7 @@
       <c r="F884" s="5"/>
       <c r="G884" s="6"/>
     </row>
-    <row r="885" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
@@ -7588,7 +7632,7 @@
       <c r="F885" s="5"/>
       <c r="G885" s="6"/>
     </row>
-    <row r="886" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
@@ -7596,7 +7640,7 @@
       <c r="F886" s="5"/>
       <c r="G886" s="6"/>
     </row>
-    <row r="887" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
@@ -7604,7 +7648,7 @@
       <c r="F887" s="5"/>
       <c r="G887" s="6"/>
     </row>
-    <row r="888" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
@@ -7612,7 +7656,7 @@
       <c r="F888" s="5"/>
       <c r="G888" s="6"/>
     </row>
-    <row r="889" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
@@ -7620,7 +7664,7 @@
       <c r="F889" s="5"/>
       <c r="G889" s="6"/>
     </row>
-    <row r="890" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
@@ -7628,7 +7672,7 @@
       <c r="F890" s="5"/>
       <c r="G890" s="6"/>
     </row>
-    <row r="891" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
@@ -7636,7 +7680,7 @@
       <c r="F891" s="5"/>
       <c r="G891" s="6"/>
     </row>
-    <row r="892" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
@@ -7644,7 +7688,7 @@
       <c r="F892" s="5"/>
       <c r="G892" s="6"/>
     </row>
-    <row r="893" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
@@ -7652,7 +7696,7 @@
       <c r="F893" s="5"/>
       <c r="G893" s="6"/>
     </row>
-    <row r="894" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
@@ -7660,7 +7704,7 @@
       <c r="F894" s="5"/>
       <c r="G894" s="6"/>
     </row>
-    <row r="895" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
@@ -7668,7 +7712,7 @@
       <c r="F895" s="5"/>
       <c r="G895" s="6"/>
     </row>
-    <row r="896" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
@@ -7676,7 +7720,7 @@
       <c r="F896" s="5"/>
       <c r="G896" s="6"/>
     </row>
-    <row r="897" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
@@ -7684,7 +7728,7 @@
       <c r="F897" s="5"/>
       <c r="G897" s="6"/>
     </row>
-    <row r="898" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
@@ -7692,7 +7736,7 @@
       <c r="F898" s="5"/>
       <c r="G898" s="6"/>
     </row>
-    <row r="899" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
@@ -7700,7 +7744,7 @@
       <c r="F899" s="5"/>
       <c r="G899" s="6"/>
     </row>
-    <row r="900" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
@@ -7708,7 +7752,7 @@
       <c r="F900" s="5"/>
       <c r="G900" s="6"/>
     </row>
-    <row r="901" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
@@ -7716,7 +7760,7 @@
       <c r="F901" s="5"/>
       <c r="G901" s="6"/>
     </row>
-    <row r="902" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
@@ -7724,7 +7768,7 @@
       <c r="F902" s="5"/>
       <c r="G902" s="6"/>
     </row>
-    <row r="903" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
@@ -7732,7 +7776,7 @@
       <c r="F903" s="5"/>
       <c r="G903" s="6"/>
     </row>
-    <row r="904" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
@@ -7740,7 +7784,7 @@
       <c r="F904" s="5"/>
       <c r="G904" s="6"/>
     </row>
-    <row r="905" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
@@ -7748,7 +7792,7 @@
       <c r="F905" s="5"/>
       <c r="G905" s="6"/>
     </row>
-    <row r="906" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
@@ -7756,7 +7800,7 @@
       <c r="F906" s="5"/>
       <c r="G906" s="6"/>
     </row>
-    <row r="907" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
@@ -7764,7 +7808,7 @@
       <c r="F907" s="5"/>
       <c r="G907" s="6"/>
     </row>
-    <row r="908" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
@@ -7772,7 +7816,7 @@
       <c r="F908" s="5"/>
       <c r="G908" s="6"/>
     </row>
-    <row r="909" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
@@ -7780,7 +7824,7 @@
       <c r="F909" s="5"/>
       <c r="G909" s="6"/>
     </row>
-    <row r="910" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
@@ -7788,7 +7832,7 @@
       <c r="F910" s="5"/>
       <c r="G910" s="6"/>
     </row>
-    <row r="911" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
@@ -7796,7 +7840,7 @@
       <c r="F911" s="5"/>
       <c r="G911" s="6"/>
     </row>
-    <row r="912" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
@@ -7804,7 +7848,7 @@
       <c r="F912" s="5"/>
       <c r="G912" s="6"/>
     </row>
-    <row r="913" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
@@ -7812,7 +7856,7 @@
       <c r="F913" s="5"/>
       <c r="G913" s="6"/>
     </row>
-    <row r="914" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
@@ -7820,7 +7864,7 @@
       <c r="F914" s="5"/>
       <c r="G914" s="6"/>
     </row>
-    <row r="915" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
@@ -7828,7 +7872,7 @@
       <c r="F915" s="5"/>
       <c r="G915" s="6"/>
     </row>
-    <row r="916" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
@@ -7836,7 +7880,7 @@
       <c r="F916" s="5"/>
       <c r="G916" s="6"/>
     </row>
-    <row r="917" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
@@ -7844,7 +7888,7 @@
       <c r="F917" s="5"/>
       <c r="G917" s="6"/>
     </row>
-    <row r="918" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
@@ -7852,7 +7896,7 @@
       <c r="F918" s="5"/>
       <c r="G918" s="6"/>
     </row>
-    <row r="919" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
@@ -7860,7 +7904,7 @@
       <c r="F919" s="5"/>
       <c r="G919" s="6"/>
     </row>
-    <row r="920" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
@@ -7868,7 +7912,7 @@
       <c r="F920" s="5"/>
       <c r="G920" s="6"/>
     </row>
-    <row r="921" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
@@ -7876,7 +7920,7 @@
       <c r="F921" s="5"/>
       <c r="G921" s="6"/>
     </row>
-    <row r="922" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
@@ -7884,7 +7928,7 @@
       <c r="F922" s="5"/>
       <c r="G922" s="6"/>
     </row>
-    <row r="923" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
@@ -7892,7 +7936,7 @@
       <c r="F923" s="5"/>
       <c r="G923" s="6"/>
     </row>
-    <row r="924" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
@@ -7900,7 +7944,7 @@
       <c r="F924" s="5"/>
       <c r="G924" s="6"/>
     </row>
-    <row r="925" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
@@ -7908,7 +7952,7 @@
       <c r="F925" s="5"/>
       <c r="G925" s="6"/>
     </row>
-    <row r="926" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
@@ -7916,7 +7960,7 @@
       <c r="F926" s="5"/>
       <c r="G926" s="6"/>
     </row>
-    <row r="927" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
@@ -7924,7 +7968,7 @@
       <c r="F927" s="5"/>
       <c r="G927" s="6"/>
     </row>
-    <row r="928" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
@@ -7932,7 +7976,7 @@
       <c r="F928" s="5"/>
       <c r="G928" s="6"/>
     </row>
-    <row r="929" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
@@ -7940,7 +7984,7 @@
       <c r="F929" s="5"/>
       <c r="G929" s="6"/>
     </row>
-    <row r="930" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
@@ -7948,7 +7992,7 @@
       <c r="F930" s="5"/>
       <c r="G930" s="6"/>
     </row>
-    <row r="931" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
@@ -7956,7 +8000,7 @@
       <c r="F931" s="5"/>
       <c r="G931" s="6"/>
     </row>
-    <row r="932" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
@@ -7964,7 +8008,7 @@
       <c r="F932" s="5"/>
       <c r="G932" s="6"/>
     </row>
-    <row r="933" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
@@ -7972,7 +8016,7 @@
       <c r="F933" s="5"/>
       <c r="G933" s="6"/>
     </row>
-    <row r="934" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
@@ -7980,7 +8024,7 @@
       <c r="F934" s="5"/>
       <c r="G934" s="6"/>
     </row>
-    <row r="935" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
@@ -7988,7 +8032,7 @@
       <c r="F935" s="5"/>
       <c r="G935" s="6"/>
     </row>
-    <row r="936" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
@@ -7996,7 +8040,7 @@
       <c r="F936" s="5"/>
       <c r="G936" s="6"/>
     </row>
-    <row r="937" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
@@ -8004,7 +8048,7 @@
       <c r="F937" s="5"/>
       <c r="G937" s="6"/>
     </row>
-    <row r="938" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
@@ -8012,7 +8056,7 @@
       <c r="F938" s="5"/>
       <c r="G938" s="6"/>
     </row>
-    <row r="939" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
@@ -8020,7 +8064,7 @@
       <c r="F939" s="5"/>
       <c r="G939" s="6"/>
     </row>
-    <row r="940" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
@@ -8028,7 +8072,7 @@
       <c r="F940" s="5"/>
       <c r="G940" s="6"/>
     </row>
-    <row r="941" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
@@ -8036,7 +8080,7 @@
       <c r="F941" s="5"/>
       <c r="G941" s="6"/>
     </row>
-    <row r="942" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
@@ -8044,7 +8088,7 @@
       <c r="F942" s="5"/>
       <c r="G942" s="6"/>
     </row>
-    <row r="943" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
@@ -8052,7 +8096,7 @@
       <c r="F943" s="5"/>
       <c r="G943" s="6"/>
     </row>
-    <row r="944" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
@@ -8060,7 +8104,7 @@
       <c r="F944" s="5"/>
       <c r="G944" s="6"/>
     </row>
-    <row r="945" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
@@ -8068,7 +8112,7 @@
       <c r="F945" s="5"/>
       <c r="G945" s="6"/>
     </row>
-    <row r="946" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
@@ -8076,7 +8120,7 @@
       <c r="F946" s="5"/>
       <c r="G946" s="6"/>
     </row>
-    <row r="947" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
@@ -8084,7 +8128,7 @@
       <c r="F947" s="5"/>
       <c r="G947" s="6"/>
     </row>
-    <row r="948" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
@@ -8092,7 +8136,7 @@
       <c r="F948" s="5"/>
       <c r="G948" s="6"/>
     </row>
-    <row r="949" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
@@ -8100,7 +8144,7 @@
       <c r="F949" s="5"/>
       <c r="G949" s="6"/>
     </row>
-    <row r="950" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
@@ -8108,7 +8152,7 @@
       <c r="F950" s="5"/>
       <c r="G950" s="6"/>
     </row>
-    <row r="951" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
@@ -8116,7 +8160,7 @@
       <c r="F951" s="5"/>
       <c r="G951" s="6"/>
     </row>
-    <row r="952" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
@@ -8124,7 +8168,7 @@
       <c r="F952" s="5"/>
       <c r="G952" s="6"/>
     </row>
-    <row r="953" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
@@ -8132,7 +8176,7 @@
       <c r="F953" s="5"/>
       <c r="G953" s="6"/>
     </row>
-    <row r="954" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
@@ -8140,7 +8184,7 @@
       <c r="F954" s="5"/>
       <c r="G954" s="6"/>
     </row>
-    <row r="955" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
@@ -8148,7 +8192,7 @@
       <c r="F955" s="5"/>
       <c r="G955" s="6"/>
     </row>
-    <row r="956" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
@@ -8156,7 +8200,7 @@
       <c r="F956" s="5"/>
       <c r="G956" s="6"/>
     </row>
-    <row r="957" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
@@ -8164,7 +8208,7 @@
       <c r="F957" s="5"/>
       <c r="G957" s="6"/>
     </row>
-    <row r="958" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
@@ -8172,7 +8216,7 @@
       <c r="F958" s="5"/>
       <c r="G958" s="6"/>
     </row>
-    <row r="959" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
@@ -8180,7 +8224,7 @@
       <c r="F959" s="5"/>
       <c r="G959" s="6"/>
     </row>
-    <row r="960" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
@@ -8188,7 +8232,7 @@
       <c r="F960" s="5"/>
       <c r="G960" s="6"/>
     </row>
-    <row r="961" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
@@ -8196,7 +8240,7 @@
       <c r="F961" s="5"/>
       <c r="G961" s="6"/>
     </row>
-    <row r="962" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
@@ -8204,7 +8248,7 @@
       <c r="F962" s="5"/>
       <c r="G962" s="6"/>
     </row>
-    <row r="963" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
@@ -8212,7 +8256,7 @@
       <c r="F963" s="5"/>
       <c r="G963" s="6"/>
     </row>
-    <row r="964" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
@@ -8220,7 +8264,7 @@
       <c r="F964" s="5"/>
       <c r="G964" s="6"/>
     </row>
-    <row r="965" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
@@ -8228,7 +8272,7 @@
       <c r="F965" s="5"/>
       <c r="G965" s="6"/>
     </row>
-    <row r="966" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
@@ -8236,7 +8280,7 @@
       <c r="F966" s="5"/>
       <c r="G966" s="6"/>
     </row>
-    <row r="967" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
@@ -8244,7 +8288,7 @@
       <c r="F967" s="5"/>
       <c r="G967" s="6"/>
     </row>
-    <row r="968" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
@@ -8252,7 +8296,7 @@
       <c r="F968" s="5"/>
       <c r="G968" s="6"/>
     </row>
-    <row r="969" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
@@ -8260,7 +8304,7 @@
       <c r="F969" s="5"/>
       <c r="G969" s="6"/>
     </row>
-    <row r="970" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
@@ -8268,7 +8312,7 @@
       <c r="F970" s="5"/>
       <c r="G970" s="6"/>
     </row>
-    <row r="971" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
@@ -8276,7 +8320,7 @@
       <c r="F971" s="5"/>
       <c r="G971" s="6"/>
     </row>
-    <row r="972" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
@@ -8284,7 +8328,7 @@
       <c r="F972" s="5"/>
       <c r="G972" s="6"/>
     </row>
-    <row r="973" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
@@ -8292,7 +8336,7 @@
       <c r="F973" s="5"/>
       <c r="G973" s="6"/>
     </row>
-    <row r="974" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
@@ -8300,7 +8344,7 @@
       <c r="F974" s="5"/>
       <c r="G974" s="6"/>
     </row>
-    <row r="975" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
@@ -8308,7 +8352,7 @@
       <c r="F975" s="5"/>
       <c r="G975" s="6"/>
     </row>
-    <row r="976" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
@@ -8316,7 +8360,7 @@
       <c r="F976" s="5"/>
       <c r="G976" s="6"/>
     </row>
-    <row r="977" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
@@ -8324,7 +8368,7 @@
       <c r="F977" s="5"/>
       <c r="G977" s="6"/>
     </row>
-    <row r="978" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
@@ -8332,7 +8376,7 @@
       <c r="F978" s="5"/>
       <c r="G978" s="6"/>
     </row>
-    <row r="979" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
@@ -8340,7 +8384,7 @@
       <c r="F979" s="5"/>
       <c r="G979" s="6"/>
     </row>
-    <row r="980" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
@@ -8348,7 +8392,7 @@
       <c r="F980" s="5"/>
       <c r="G980" s="6"/>
     </row>
-    <row r="981" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
@@ -8356,7 +8400,7 @@
       <c r="F981" s="5"/>
       <c r="G981" s="6"/>
     </row>
-    <row r="982" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
@@ -8364,7 +8408,7 @@
       <c r="F982" s="5"/>
       <c r="G982" s="6"/>
     </row>
-    <row r="983" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
@@ -8372,7 +8416,7 @@
       <c r="F983" s="5"/>
       <c r="G983" s="6"/>
     </row>
-    <row r="984" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
@@ -8380,7 +8424,7 @@
       <c r="F984" s="5"/>
       <c r="G984" s="6"/>
     </row>
-    <row r="985" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
@@ -8388,7 +8432,7 @@
       <c r="F985" s="5"/>
       <c r="G985" s="6"/>
     </row>
-    <row r="986" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
       <c r="D986" s="5"/>
@@ -8396,7 +8440,7 @@
       <c r="F986" s="5"/>
       <c r="G986" s="6"/>
     </row>
-    <row r="987" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
       <c r="D987" s="5"/>
@@ -8404,7 +8448,7 @@
       <c r="F987" s="5"/>
       <c r="G987" s="6"/>
     </row>
-    <row r="988" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
       <c r="D988" s="5"/>
@@ -8412,7 +8456,7 @@
       <c r="F988" s="5"/>
       <c r="G988" s="6"/>
     </row>
-    <row r="989" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
       <c r="D989" s="5"/>
@@ -8420,7 +8464,7 @@
       <c r="F989" s="5"/>
       <c r="G989" s="6"/>
     </row>
-    <row r="990" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
       <c r="D990" s="5"/>
@@ -8428,7 +8472,7 @@
       <c r="F990" s="5"/>
       <c r="G990" s="6"/>
     </row>
-    <row r="991" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
       <c r="D991" s="5"/>
@@ -8436,7 +8480,7 @@
       <c r="F991" s="5"/>
       <c r="G991" s="6"/>
     </row>
-    <row r="992" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
       <c r="D992" s="5"/>
@@ -8444,7 +8488,7 @@
       <c r="F992" s="5"/>
       <c r="G992" s="6"/>
     </row>
-    <row r="993" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
       <c r="D993" s="5"/>
@@ -8452,7 +8496,7 @@
       <c r="F993" s="5"/>
       <c r="G993" s="6"/>
     </row>
-    <row r="994" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
       <c r="D994" s="5"/>
@@ -8460,7 +8504,7 @@
       <c r="F994" s="5"/>
       <c r="G994" s="6"/>
     </row>
-    <row r="995" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
       <c r="D995" s="5"/>
@@ -8468,7 +8512,7 @@
       <c r="F995" s="5"/>
       <c r="G995" s="6"/>
     </row>
-    <row r="996" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
       <c r="D996" s="5"/>
@@ -8476,7 +8520,7 @@
       <c r="F996" s="5"/>
       <c r="G996" s="6"/>
     </row>
-    <row r="997" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
       <c r="D997" s="5"/>
@@ -8484,7 +8528,7 @@
       <c r="F997" s="5"/>
       <c r="G997" s="6"/>
     </row>
-    <row r="998" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
       <c r="D998" s="5"/>
@@ -8492,7 +8536,7 @@
       <c r="F998" s="5"/>
       <c r="G998" s="6"/>
     </row>
-    <row r="999" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
       <c r="D999" s="5"/>
@@ -8500,7 +8544,7 @@
       <c r="F999" s="5"/>
       <c r="G999" s="6"/>
     </row>
-    <row r="1000" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="7"/>
       <c r="C1000" s="7"/>
       <c r="D1000" s="7"/>
